--- a/Testen/Testdag/LogiTrack/uitwerking.xlsx
+++ b/Testen/Testdag/LogiTrack/uitwerking.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VRI_Datalogger\Testen\Testdag\LogiTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F617101-0148-4DCA-9392-1AB8A037F749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F715F8-1F15-4FF4-81CD-4DA9F170F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="LogiTrack_all" sheetId="1" r:id="rId1"/>
-    <sheet name="LogiTrack20" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad2" sheetId="3" r:id="rId3"/>
-    <sheet name="Blad3" sheetId="4" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="6" r:id="rId2"/>
+    <sheet name="Herberekening" sheetId="5" r:id="rId3"/>
+    <sheet name="LogiTrack20" sheetId="2" r:id="rId4"/>
+    <sheet name="Blad3" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="206">
   <si>
     <t>11:16:47.703</t>
   </si>
@@ -43,15 +57,6 @@
     <t>11:18:32.348</t>
   </si>
   <si>
-    <t>11:18:34.578</t>
-  </si>
-  <si>
-    <t>11:18:35.775</t>
-  </si>
-  <si>
-    <t>11:18:36.926</t>
-  </si>
-  <si>
     <t>Rit 3, 2025-05-09, 11:19:50</t>
   </si>
   <si>
@@ -547,30 +552,6 @@
     <t>11:05:45.654</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Measured Time [Sec]:</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>29,9789
-1,2137
-1,2081
-1,148</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
     <t>DAQ</t>
   </si>
   <si>
@@ -587,14 +568,102 @@
   </si>
   <si>
     <t>Rit 6, 2025-05-09, 11:26:58 bij 10M</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12:02:03.863</t>
+  </si>
+  <si>
+    <t>38 metingen</t>
+  </si>
+  <si>
+    <t>11:18:33.578</t>
+  </si>
+  <si>
+    <t>11:18:34.775</t>
+  </si>
+  <si>
+    <t>11:18:35.926</t>
+  </si>
+  <si>
+    <t>11:22:01.896</t>
+  </si>
+  <si>
+    <t>11:22:02.748</t>
+  </si>
+  <si>
+    <t>11:22:03.580</t>
+  </si>
+  <si>
+    <t>11:29:11.628</t>
+  </si>
+  <si>
+    <t>11:29:12.432</t>
+  </si>
+  <si>
+    <t>11:29:13.231</t>
+  </si>
+  <si>
+    <t>11:32:38.801</t>
+  </si>
+  <si>
+    <t>11:37:55.567</t>
+  </si>
+  <si>
+    <t>11:37:56.645</t>
+  </si>
+  <si>
+    <t>11:40:18.474</t>
+  </si>
+  <si>
+    <t>11:40:18.934</t>
+  </si>
+  <si>
+    <t>11:42:35.813</t>
+  </si>
+  <si>
+    <t>11:44:49.662</t>
+  </si>
+  <si>
+    <t>11:44:49.937</t>
+  </si>
+  <si>
+    <t>11:48:02.082</t>
+  </si>
+  <si>
+    <t>11:48:02.317</t>
+  </si>
+  <si>
+    <t>65 metingen</t>
+  </si>
+  <si>
+    <t>Gemiddelde</t>
+  </si>
+  <si>
+    <t>Grootste afwijking</t>
+  </si>
+  <si>
+    <t>171 ms</t>
+  </si>
+  <si>
+    <t>11:18:33.775</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>4 ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="hh:mm:ss.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -732,7 +801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,8 +987,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1034,6 +1115,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1079,7 +1175,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1089,7 +1185,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,6 +1259,2777 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verschil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Blad1!$A$2:$A$141</c:f>
+              <c:strCache>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>11:16:47.703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11:16:49.224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11:16:50.757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11:16:52.212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rit 2, 2025-05-09, 11:18:06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11:18:32.348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11:18:33.578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11:18:33.775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11:18:35.926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rit 3, 2025-05-09, 11:19:50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11:20:09.133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11:20:10.139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11:20:11.157</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11:20:12.108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rit 4, 2025-05-09, 11:21:41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:22:01.011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:22:02.896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:22:03.748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:22:04.580</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Rit 5, 2025-05-09, 11:23:27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11:23:43.784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11:23:44.551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11:23:45.330</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11:23:46.055</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11:24:29.412</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rit 6, 2025-05-09, 11:26:58 bij 10M</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11:27:22.738</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11:27:23.743</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11:27:24.761</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11:27:25.748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rit 7, 2025-05-09, 11:28:48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11:29:10.822</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11:29:10.628</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11:29:11.432</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11:29:12.231</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Rit 8, 2025-05-09, 11:30:35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11:30:51.517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11:30:52.190</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11:30:52.862</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11:30:53.526</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Rit 9, 2025-05-09, 11:32:21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11:32:37.654</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11:32:38.234</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11:32:39.801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11:32:39.393</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Rit 10, 2025-05-09, 11:34:37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11:34:52.275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11:34:52.789</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11:34:53.302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11:34:53.814</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Rit 11, 2025-05-09, 11:37:36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11:37:55.053</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11:37:55.567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11:37:56.080</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11:37:57.645</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Rit 12, 2025-05-09, 11:39:57</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11:40:18.684</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11:40:18.066</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11:40:19.474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11:40:19.934</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Rit 13, 2025-05-09, 11:42:21</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11:42:35.485</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11:42:36.813</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11:42:36.140</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11:42:36.548</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Rit 14, 2025-05-09, 11:44:33</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11:44:45.399</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11:44:49.346</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11:44:50.662</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11:44:50.937</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11:44:50.264</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Rit 15, 2025-05-09, 11:47:24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11:48:01.807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11:48:01.082</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11:48:01.317</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11:48:02.619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Rit 16, 2025-05-09, 11:51:15</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11:51:32.494</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11:51:32.584</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11:51:32.699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11:51:32.788</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Rit 17, 2025-05-09, 11:52:28</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11:52:41.522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11:52:41.612</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11:52:41.685</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11:52:41.773</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Rit 18, 2025-05-09, 11:53:37</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11:53:50.679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11:53:50.769</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11:53:50.831</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11:53:50.893</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Rit 19, 2025-05-09, 11:54:44</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11:54:53.739</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11:54:53.802</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11:54:53.864</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11:54:53.926</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Rit 20, 2025-05-09, 11:55:56</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11:56:08.826</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11:56:08.889</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11:56:08.959</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11:56:08.994</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Rit 21, 2025-05-09, 11:57:44</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11:57:53.841</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11:57:53.904</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Rit 22, 2025-05-09, 11:59:19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11:59:36.735</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11:59:36.825</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Rit 23, 2025-05-09, 12:01:48</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12:02:03.464</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12:02:03.607</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12:02:03.722</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12:02:04.863</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Rit 24, 2025-05-09, 12:03:39</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12:03:54.265</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>12:03:54.381</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12:03:54.496</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12:03:54.587</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$F$2:$F$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="1">
+                  <c:v>-9.100000000000108E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999851E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6299999999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1099999999999888E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.6000000000000529E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.000000000000119E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.5000000000000631E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5900000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5899999999999923E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.2999999999999714E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.5000000000000613E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.0000000000013394E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7700000000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.9999999999990088E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9000000000000128E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.5999999999999392E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.3999999999999577E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.4000000000000687E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.2300000000000089E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.17099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.5999999999999384E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5999999999999357E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.1999999999999797E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.3299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.8000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.600000000000052E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.4499999999999966E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9999999999999472E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.000000000000445E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.1699999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3499999999999965E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.6699999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-5.6999999999999829E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5900000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999635E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.2499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.2300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.1999999999999981E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-6.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-5.9000000000000025E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.0999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.9600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-3.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-3.8699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.8799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-4.0599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5699999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.3599999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.3000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.3300000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBFB-4D91-BDD6-24D46D2E9FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076313359"/>
+        <c:axId val="2076304239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2076313359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="94000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076304239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2076304239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076313359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Meetafwijking</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61960326895194939"/>
+          <c:y val="3.7088543494932305E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad3!$F$3:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>-9.100000000000108E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1999999999999851E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.6000000000000529E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.000000000000119E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.5000000000000631E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.2999999999999714E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.5000000000000613E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0000000000013394E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7700000000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.3299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.5999999999999392E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.3999999999999577E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.5999999999999384E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.5999999999999357E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1999999999999797E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1999999999999981E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.9000000000000025E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5699999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3599999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.3000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.3300000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-971F-448E-87F6-C4BB5E581633}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="452531584"/>
+        <c:axId val="452528224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="452531584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452528224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="452528224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452531584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2ABBEB1-5890-4114-DD96-2D5BE7F3896B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05556264-211C-809B-B403-099A711C59D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651972A6-FD95-4C23-99A5-ECDEA62D55C5}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F141" sqref="A1:F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,16 +4362,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,7 +4416,7 @@
         <v>1.5247999999999999</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">D4-E4</f>
+        <f t="shared" ref="F4:F66" si="0">D4-E4</f>
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
@@ -1545,12 +4429,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,7 +4446,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1573,15 +4457,15 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1598,7 +4482,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1615,7 +4499,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1632,32 +4516,32 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>1.006</v>
@@ -1672,7 +4556,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1.018</v>
@@ -1687,7 +4571,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0.95099999999999996</v>
@@ -1702,36 +4586,36 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1748,7 +4632,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1765,7 +4649,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1782,28 +4666,28 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>0.76700000000000002</v>
@@ -1818,7 +4702,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>0.77900000000000003</v>
@@ -1833,7 +4717,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>0.72499999999999998</v>
@@ -1848,36 +4732,36 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>1.0049999999999999</v>
@@ -1892,7 +4776,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>1.018</v>
@@ -1907,7 +4791,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>0.98699999999999999</v>
@@ -1922,36 +4806,36 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1960,12 +4844,12 @@
         <v>0.80689999999999995</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1982,7 +4866,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1999,28 +4883,28 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>0.67300000000000004</v>
@@ -2035,7 +4919,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <v>0.67200000000000004</v>
@@ -2050,7 +4934,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>0.66400000000000003</v>
@@ -2065,36 +4949,36 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2111,7 +4995,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2120,12 +5004,12 @@
         <v>0.57930000000000004</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2142,28 +5026,28 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>0.51400000000000001</v>
@@ -2178,7 +5062,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <v>0.51300000000000001</v>
@@ -2193,7 +5077,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>0.51200000000000001</v>
@@ -2208,36 +5092,36 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2254,7 +5138,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2271,7 +5155,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2286,53 +5170,53 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E70" s="4">
         <v>0.40649999999999997</v>
       </c>
       <c r="F70" s="4" t="e">
-        <f t="shared" ref="F68:F131" si="1">D70-E70</f>
+        <f t="shared" ref="F70:F130" si="1">D70-E70</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2347,7 +5231,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2364,36 +5248,36 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2408,7 +5292,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2423,7 +5307,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2438,48 +5322,48 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2494,7 +5378,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2509,7 +5393,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2524,38 +5408,38 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2571,7 +5455,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2587,7 +5471,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2603,28 +5487,28 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>0.09</v>
@@ -2639,7 +5523,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D96">
         <v>0.115</v>
@@ -2654,7 +5538,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D97">
         <v>8.8999999999999996E-2</v>
@@ -2669,28 +5553,28 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D101">
         <v>0.09</v>
@@ -2705,7 +5589,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D102">
         <v>7.2999999999999995E-2</v>
@@ -2720,7 +5604,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D103">
         <v>8.7999999999999995E-2</v>
@@ -2735,28 +5619,28 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D107">
         <v>0.09</v>
@@ -2771,7 +5655,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D108">
         <v>6.2E-2</v>
@@ -2786,7 +5670,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D109">
         <v>6.2E-2</v>
@@ -2801,28 +5685,28 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D113">
         <v>6.3E-2</v>
@@ -2837,7 +5721,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D114">
         <v>6.2E-2</v>
@@ -2852,7 +5736,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D115">
         <v>6.2E-2</v>
@@ -2867,28 +5751,28 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D119">
         <v>6.3E-2</v>
@@ -2903,7 +5787,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D120">
         <v>7.0000000000000007E-2</v>
@@ -2918,7 +5802,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D121">
         <v>3.5000000000000003E-2</v>
@@ -2933,24 +5817,24 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2967,7 +5851,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2995,19 +5879,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3022,7 +5906,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3050,23 +5934,23 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F131" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F132" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D133">
         <v>0.14299999999999999</v>
@@ -3075,13 +5959,13 @@
         <v>0.1273</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F132:F141" si="2">D133-E133</f>
+        <f t="shared" ref="F133:F141" si="2">D133-E133</f>
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D134">
         <v>0.115</v>
@@ -3096,7 +5980,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D135">
         <v>1.141</v>
@@ -3111,28 +5995,28 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F137" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D139">
         <v>0.11600000000000001</v>
@@ -3147,7 +6031,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D140">
         <v>0.115</v>
@@ -3162,7 +6046,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D141">
         <v>9.0999999999999998E-2</v>
@@ -3182,10 +6066,3638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F352487-CEFB-4AA4-B87D-4BD4D4EEEB50}">
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="O139" sqref="O139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="str">
+        <f>IF(AND(ISNUMBER(A3),ISNUMBER(A2)),A3-A2,"")</f>
+        <v/>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5301</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>-9.100000000000108E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.5247999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F66" si="0">D4-E4</f>
+        <v>8.1999999999999851E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.2137</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6299999999999981E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1.2081</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.1099999999999888E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>1.151</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1.006</v>
+      </c>
+      <c r="E15">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-9.6000000000000529E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.018</v>
+      </c>
+      <c r="E16">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>9.000000000000119E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-8.5000000000000631E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.8679</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.5900000000000025E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.5899999999999923E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-5.2999999999999714E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E28">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-6.5000000000000613E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E34">
+        <v>1.0058</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000013394E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>1.018</v>
+      </c>
+      <c r="E35">
+        <v>1.0003</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.7700000000000049E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E36">
+        <v>1.0003</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999990088E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000128E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E46">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-6.5999999999999392E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E47">
+        <v>0.6744</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-2.3999999999999577E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E48">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.4000000000000687E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.2300000000000089E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.17099999999999999</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999384E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-2.5999999999999357E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>-2.1999999999999797E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.3299999999999994E-2</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.505</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.5736</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.600000000000052E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" ref="F70:F130" si="1">D70-E70</f>
+        <v>-2.4499999999999966E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999472E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="1"/>
+        <v>1.000000000000445E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.3397</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.1699999999999988E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3499999999999965E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6">
+        <v>0.316</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.6699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.3327</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.6999999999999829E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.2591</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5900000000000025E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999635E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95">
+        <v>0.09</v>
+      </c>
+      <c r="E95">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>-1.2499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>0.115</v>
+      </c>
+      <c r="E96">
+        <v>0.1028</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1.2200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.1013</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>-1.2300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101">
+        <v>0.09</v>
+      </c>
+      <c r="E101">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E102">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E103">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107">
+        <v>0.09</v>
+      </c>
+      <c r="E107">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E108">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>-6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E109">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>-5.9000000000000025E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="F111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E113">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999986E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E114">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E115">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="F118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E119">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E120">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E121">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>-1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E124" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F124" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F125" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="F126" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="E128" s="4">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F128" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F129" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="F130" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>105</v>
+      </c>
+      <c r="D133">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E133">
+        <v>0.1273</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ref="F133:F141" si="2">D133-E133</f>
+        <v>1.5699999999999992E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134">
+        <v>0.115</v>
+      </c>
+      <c r="E134">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>-1.3599999999999987E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E135">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>1.4299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E139">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140">
+        <v>0.115</v>
+      </c>
+      <c r="E140">
+        <v>0.1067</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>8.3000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E141">
+        <v>0.1043</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>-1.3300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" s="10">
+        <f>AVERAGE(E147)/65</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="10">
+        <f>SUM(B3:B121,B133:B141)</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="10">
+        <f>SUM(C3:C121,C133:C141)</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="10">
+        <f>C147-B147</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B83D896-1E67-4773-BD5F-3835F766E0FA}">
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q147" sqref="Q147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="str">
+        <f>IF(AND(ISNUMBER(A3),ISNUMBER(A2)),A3-A2,"")</f>
+        <v/>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.5301</v>
+      </c>
+      <c r="F3" s="10">
+        <f>E3-D3</f>
+        <v>9.100000000000108E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.5247999999999999</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F64" si="0">D4-E4</f>
+        <v>8.1999999999999851E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.2137</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6299999999999981E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.2081</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10-D10</f>
+        <v>1.1099999999999888E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>1.151</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1.006</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <f>E15-D15</f>
+        <v>9.6000000000000529E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.018</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>9.000000000000119E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <f>E17-D17</f>
+        <v>8.5000000000000631E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.8679</v>
+      </c>
+      <c r="F22" s="10">
+        <f>E22-D22</f>
+        <v>1.5900000000000025E-2</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="F23" s="10">
+        <f>E23-D23</f>
+        <v>2.5899999999999923E-2</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="F27" s="10">
+        <f>E27-D27</f>
+        <v>5.2999999999999714E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F29" s="10">
+        <f>E29-D29</f>
+        <v>6.5000000000000613E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1.0058</v>
+      </c>
+      <c r="F34" s="10">
+        <f>E34-D34</f>
+        <v>8.0000000000013394E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>1.018</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.0003</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7700000000000049E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.0003</v>
+      </c>
+      <c r="F36" s="10">
+        <f>E36-D36</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="F40" s="10">
+        <f>E40-D40</f>
+        <v>8.9999999999990088E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000128E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F42" s="10">
+        <f>E42-D42</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="F46" s="10">
+        <f>E46-D46</f>
+        <v>6.5999999999999392E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.6744</v>
+      </c>
+      <c r="F47" s="10">
+        <f>E47-D47</f>
+        <v>2.3999999999999577E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F48" s="10">
+        <f>E48-D48</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="F52" s="10">
+        <f>E52-D52</f>
+        <v>2.4000000000000687E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="F53" s="10">
+        <f>E53-D53</f>
+        <v>1.2300000000000089E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F54" s="10">
+        <f>E54-D54</f>
+        <v>0.17099999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F58" s="10">
+        <f>E58-D58</f>
+        <v>5.5999999999999384E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:F60" si="1">E59-D59</f>
+        <v>2.5999999999999357E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999797E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000393E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0.505</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" ref="F65:F66" si="2">E65-D65</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.5736</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="2"/>
+        <v>8.600000000000052E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" ref="F70" si="3">E70-D70</f>
+        <v>2.4499999999999966E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" ref="F71:F130" si="4">D71-E71</f>
+        <v>2.9999999999999472E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="4"/>
+        <v>1.000000000000445E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.3397</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" ref="F76:F77" si="5">E76-D76</f>
+        <v>1.1699999999999988E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="5"/>
+        <v>1.150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="4"/>
+        <v>2.3499999999999965E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6">
+        <v>0.316</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="4"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" ref="F84:F85" si="6">E84-D84</f>
+        <v>1.7699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0.3327</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="6"/>
+        <v>5.6999999999999829E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0.2591</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="4"/>
+        <v>1.5900000000000025E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" ref="F90" si="7">E90-D90</f>
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="4"/>
+        <v>8.8999999999999635E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95">
+        <v>0.09</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F95" s="10">
+        <f t="shared" ref="F95" si="8">E95-D95</f>
+        <v>1.2499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>0.115</v>
+      </c>
+      <c r="E96" s="10">
+        <v>0.1028</v>
+      </c>
+      <c r="F96" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0.1013</v>
+      </c>
+      <c r="F97" s="10">
+        <f t="shared" ref="F97" si="9">E97-D97</f>
+        <v>1.2300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101">
+        <v>0.09</v>
+      </c>
+      <c r="E101" s="10">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F101" s="10">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E102" s="10">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F102" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E103" s="10">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F103" s="10">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107">
+        <v>0.09</v>
+      </c>
+      <c r="E107" s="10">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="F107" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E108" s="10">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F108" s="10">
+        <f>E108-D108</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E109" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F109" s="10">
+        <f>E109-D109</f>
+        <v>5.9000000000000025E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E113" s="10">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F113" s="10">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999986E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E114" s="10">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F114" s="10">
+        <f t="shared" si="4"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E115" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F115" s="10">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E119" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F119" s="10">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E120" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F120" s="10">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E121" s="10">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F121" s="10">
+        <f>E121-D121</f>
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E124" s="12">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F124" s="12">
+        <f>D124-E124</f>
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="12">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="12">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="12">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F128" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="12">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F129" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="12">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="F130" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>105</v>
+      </c>
+      <c r="D133">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E133" s="10">
+        <v>0.1273</v>
+      </c>
+      <c r="F133" s="10">
+        <f t="shared" ref="F133:F140" si="10">D133-E133</f>
+        <v>1.5699999999999992E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134">
+        <v>0.115</v>
+      </c>
+      <c r="E134" s="10">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F134" s="10">
+        <f>E134-D134</f>
+        <v>1.3599999999999987E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E135" s="10">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F135" s="10">
+        <f t="shared" si="10"/>
+        <v>1.4299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E139" s="10">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F139" s="10">
+        <f t="shared" si="10"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140">
+        <v>0.115</v>
+      </c>
+      <c r="E140" s="10">
+        <v>0.1067</v>
+      </c>
+      <c r="F140" s="10">
+        <f t="shared" si="10"/>
+        <v>8.3000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E141" s="10">
+        <v>0.1043</v>
+      </c>
+      <c r="F141" s="10">
+        <f>E141-D141</f>
+        <v>1.3300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>200</v>
+      </c>
+      <c r="F143" s="10">
+        <f>AVERAGE(G147)/65</f>
+        <v>3.7876923076920065E-3</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>201</v>
+      </c>
+      <c r="F144">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D145" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D146" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D147" s="15">
+        <f>SUM(D3:D121,D133:D141)</f>
+        <v>32.381000000000007</v>
+      </c>
+      <c r="E147" s="15">
+        <f>SUM(E3:E121,E133:E141)</f>
+        <v>32.627199999999988</v>
+      </c>
+      <c r="G147" s="15">
+        <f>E147-D147</f>
+        <v>0.24619999999998043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07D1D1-28CF-44A6-BB96-0420E1FEC425}">
   <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3193,292 +9705,292 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3486,139 +9998,1047 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F763FF-14E8-460C-A171-7162CE51E3A3}">
-  <dimension ref="A1:A26"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53264914-CD3F-402A-B2D7-1460398019E5}">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>34.4024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="E3" s="3">
         <v>1.5301</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F3">
+        <v>-9.100000000000108E-3</v>
+      </c>
+      <c r="H3">
+        <f>E3-D3</f>
+        <v>9.100000000000108E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="E4" s="3">
         <v>1.5247999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>8.1999999999999851E-3</v>
+      </c>
+      <c r="H4">
+        <f>D4-E4</f>
+        <v>8.1999999999999851E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1.006</v>
+      </c>
+      <c r="E8">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-9.6000000000000529E-3</v>
+      </c>
+      <c r="H8">
+        <f>E8-D8</f>
+        <v>9.6000000000000529E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1.018</v>
+      </c>
+      <c r="E9">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F9">
+        <v>9.000000000000119E-3</v>
+      </c>
+      <c r="H9">
+        <f>D9-E9</f>
+        <v>9.000000000000119E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F10">
+        <v>-8.5000000000000631E-3</v>
+      </c>
+      <c r="H10">
+        <f>E10-D10</f>
+        <v>8.5000000000000631E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="F13">
+        <v>-5.2999999999999714E-3</v>
+      </c>
+      <c r="H13">
+        <f>E13-D13</f>
+        <v>5.2999999999999714E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="F14">
+        <v>1.0099999999999998E-2</v>
+      </c>
+      <c r="H14">
+        <f>D14-E14</f>
+        <v>1.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F15">
+        <v>-6.5000000000000613E-3</v>
+      </c>
+      <c r="H15">
+        <f>E15-D15</f>
+        <v>6.5000000000000613E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.0058</v>
+      </c>
+      <c r="F19">
+        <v>-8.0000000000013394E-4</v>
+      </c>
+      <c r="H19">
+        <f>E19-D19</f>
+        <v>8.0000000000013394E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>1.018</v>
+      </c>
+      <c r="E20">
+        <v>1.0003</v>
+      </c>
+      <c r="F20">
+        <v>1.7700000000000049E-2</v>
+      </c>
+      <c r="H20">
+        <f>D20-E20</f>
+        <v>1.7700000000000049E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.0003</v>
+      </c>
+      <c r="F21">
+        <v>-1.3299999999999979E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H70" si="0">E21-D21</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="F24">
+        <v>-6.5999999999999392E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999392E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.6744</v>
+      </c>
+      <c r="F25">
+        <v>-2.3999999999999577E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999577E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F26">
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F29">
+        <v>-5.5999999999999384E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999384E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="F30">
+        <v>-2.5999999999999357E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999357E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F31">
+        <v>-2.1999999999999797E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999797E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>0.09</v>
+      </c>
+      <c r="E34">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F34">
+        <v>-1.2499999999999997E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>0.115</v>
+      </c>
+      <c r="E35">
+        <v>0.1028</v>
+      </c>
+      <c r="F35">
+        <v>1.2200000000000003E-2</v>
+      </c>
+      <c r="H35">
+        <f>D35-E35</f>
+        <v>1.2200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.1013</v>
+      </c>
+      <c r="F36">
+        <v>-1.2300000000000005E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.2300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>0.09</v>
+      </c>
+      <c r="E40">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>7.1999999999999981E-3</v>
+      </c>
+      <c r="H40">
+        <f>D40-E40</f>
+        <v>7.1999999999999981E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E41">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F41">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E42">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.1999999999999972E-3</v>
+      </c>
+      <c r="H42">
+        <f>D42-E42</f>
+        <v>6.1999999999999972E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <v>0.09</v>
+      </c>
+      <c r="E46">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="F46">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="H46">
+        <f>D46-E46</f>
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E47">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F47">
+        <v>-6.8000000000000005E-3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F48">
+        <v>-5.9000000000000025E-3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>5.9000000000000025E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E52">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F52">
+        <v>3.0999999999999986E-3</v>
+      </c>
+      <c r="H52">
+        <f>D52-E52</f>
+        <v>3.0999999999999986E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E53">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.8999999999999989E-3</v>
+      </c>
+      <c r="H53">
+        <f>D53-E53</f>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E54">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F54">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="H54">
+        <f>D54-E54</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E57">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="H57">
+        <f>D57-E57</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E58">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F58">
+        <v>1.7000000000000008E-2</v>
+      </c>
+      <c r="H58">
+        <f>D58-E58</f>
+        <v>1.7000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E59">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F59">
+        <v>-1.7399999999999999E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.1273</v>
+      </c>
+      <c r="F62">
+        <v>1.5699999999999992E-2</v>
+      </c>
+      <c r="H62">
+        <f>D62-E62</f>
+        <v>1.5699999999999992E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>0.115</v>
+      </c>
+      <c r="E63">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F63">
+        <v>-1.3599999999999987E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999987E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21.361699999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.0156000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.95950000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D64">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E64">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F64">
+        <v>1.43E-2</v>
+      </c>
+      <c r="H64">
+        <f>D64-E64</f>
+        <v>1.4299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E68">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F68">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="H68">
+        <f>D68-E68</f>
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>0.115</v>
+      </c>
+      <c r="E69">
+        <v>0.1067</v>
+      </c>
+      <c r="F69">
+        <v>8.3000000000000018E-3</v>
+      </c>
+      <c r="H69">
+        <f>D69-E69</f>
+        <v>8.3000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.1043</v>
+      </c>
+      <c r="F70">
+        <v>-1.3300000000000006E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>1.3300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>26.251000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.87090000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.8679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.82589999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>26.248200000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.77229999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.76890000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.73150000000000004</v>
+      <c r="H72">
+        <f>AVERAGE(H3:H4,H8:H10,H13:H15,H19:H21,H24:H26,H29:H31,H34:H36,H40:H42,H46:H48,H52:H54,H57:H59,H62:H64,H68:H70)</f>
+        <v>9.1631578947368505E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f>SUM(D3,D3:D70)</f>
+        <v>18.213999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53264914-CD3F-402A-B2D7-1460398019E5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testen/Testdag/LogiTrack/uitwerking.xlsx
+++ b/Testen/Testdag/LogiTrack/uitwerking.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VRI_Datalogger\Testen\Testdag\LogiTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F715F8-1F15-4FF4-81CD-4DA9F170F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB8C52-0F62-400C-A335-22B60231BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="LogiTrack_all" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="6" r:id="rId2"/>
     <sheet name="Herberekening" sheetId="5" r:id="rId3"/>
-    <sheet name="LogiTrack20" sheetId="2" r:id="rId4"/>
-    <sheet name="Blad3" sheetId="4" r:id="rId5"/>
+    <sheet name="Blad2" sheetId="7" r:id="rId4"/>
+    <sheet name="LogiTrack20" sheetId="2" r:id="rId5"/>
+    <sheet name="Blad3" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="218">
   <si>
     <t>11:16:47.703</t>
   </si>
@@ -654,16 +655,53 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>4 ms</t>
+    <t xml:space="preserve">Rit 1, 2025-05-09, 11:16:17 </t>
+  </si>
+  <si>
+    <t>15 meter</t>
+  </si>
+  <si>
+    <t>10 meter</t>
+  </si>
+  <si>
+    <t>11:32:40.393</t>
+  </si>
+  <si>
+    <t>1ms</t>
+  </si>
+  <si>
+    <t>Afstand</t>
+  </si>
+  <si>
+    <t>Tijd</t>
+  </si>
+  <si>
+    <t>Snelheid</t>
+  </si>
+  <si>
+    <t>Tijd + 1ms</t>
+  </si>
+  <si>
+    <t>Tijd- 1ms</t>
+  </si>
+  <si>
+    <t>Tijd - 41ms</t>
+  </si>
+  <si>
+    <t>25 ms</t>
+  </si>
+  <si>
+    <t>Tijd + 26ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1175,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1201,6 +1239,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1527,7 @@
                   <c:v>11:32:39.801</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11:32:39.393</c:v>
+                  <c:v>11:32:40.393</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>Rit 10, 2025-05-09, 11:34:37</c:v>
@@ -1866,7 +1908,7 @@
                   <c:v>-1.2300000000000089E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.17099999999999999</c:v>
+                  <c:v>1.3000000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -2325,6 +2367,1078 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4198563425165866"/>
+          <c:y val="1.5290817064551845E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Herberekening!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verschil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Herberekening!$A$2:$A$147</c:f>
+              <c:strCache>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>11:16:47.703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11:16:49.224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11:16:50.757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11:16:52.212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rit 2, 2025-05-09, 11:18:06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11:18:32.348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11:18:33.578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11:18:34.775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11:18:35.926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rit 3, 2025-05-09, 11:19:50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11:20:09.133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11:20:10.139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11:20:11.157</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11:20:12.108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rit 4, 2025-05-09, 11:21:41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:22:01.011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:22:01.896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:22:02.748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:22:03.580</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Rit 5, 2025-05-09, 11:23:27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11:23:43.784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11:23:44.551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11:23:45.330</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11:23:46.055</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11:24:29.412</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rit 6, 2025-05-09, 11:26:58 bij 10M</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11:27:22.738</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11:27:23.743</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11:27:24.761</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11:27:25.748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rit 7, 2025-05-09, 11:28:48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11:29:10.822</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11:29:11.628</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11:29:12.432</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11:29:13.231</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Rit 8, 2025-05-09, 11:30:35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11:30:51.517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11:30:52.190</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11:30:52.862</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11:30:53.526</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Rit 9, 2025-05-09, 11:32:21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11:32:37.654</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11:32:38.234</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11:32:38.801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11:32:39.393</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Rit 10, 2025-05-09, 11:34:37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11:34:52.275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11:34:52.789</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11:34:53.302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11:34:53.814</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Rit 11, 2025-05-09, 11:37:36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11:37:55.053</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11:37:55.567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11:37:56.080</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11:37:56.645</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Rit 12, 2025-05-09, 11:39:57</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11:40:18.684</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11:40:18.066</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11:40:18.474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11:40:18.934</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Rit 13, 2025-05-09, 11:42:21</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11:42:35.485</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11:42:35.813</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11:42:36.140</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11:42:36.548</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Rit 14, 2025-05-09, 11:44:33</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11:44:45.399</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11:44:49.346</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11:44:49.662</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11:44:49.937</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11:44:50.264</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Rit 15, 2025-05-09, 11:47:24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11:48:01.807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11:48:02.082</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11:48:02.317</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11:48:02.619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Rit 16, 2025-05-09, 11:51:15</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11:51:32.494</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11:51:32.584</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11:51:32.699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11:51:32.788</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Rit 17, 2025-05-09, 11:52:28</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11:52:41.522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11:52:41.612</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11:52:41.685</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11:52:41.773</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Rit 18, 2025-05-09, 11:53:37</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11:53:50.679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11:53:50.769</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11:53:50.831</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11:53:50.893</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Rit 19, 2025-05-09, 11:54:44</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11:54:53.739</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11:54:53.802</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11:54:53.864</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11:54:53.926</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Rit 20, 2025-05-09, 11:55:56</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11:56:08.826</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11:56:08.889</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11:56:08.959</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11:56:08.994</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Rit 21, 2025-05-09, 11:57:44</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11:57:53.841</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11:57:53.904</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Rit 22, 2025-05-09, 11:59:19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11:59:36.735</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11:59:36.825</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Rit 23, 2025-05-09, 12:01:48</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12:02:03.464</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12:02:03.607</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12:02:03.722</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12:02:03.863</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Rit 24, 2025-05-09, 12:03:39</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12:03:54.265</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>12:03:54.381</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12:03:54.496</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12:03:54.587</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Herberekening!$F$2:$F$147</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="1">
+                  <c:v>9.100000000000108E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999851E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6299999999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1099999999999888E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6000000000000529E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.000000000000119E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5000000000000631E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5900000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5899999999999923E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2999999999999714E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5000000000000613E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0000000000013394E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7700000000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9999999999990088E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9000000000000128E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5999999999999392E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.3999999999999577E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4000000000000687E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2300000000000089E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.3000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999999999999384E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5999999999999357E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1999999999999797E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.7000000000000393E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.600000000000052E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4499999999999966E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9999999999999472E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.000000000000445E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1699999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3499999999999965E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.6999999999999829E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5900000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999635E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.1999999999999981E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.9000000000000025E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.0999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5699999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3599999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.3000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.3300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="0.0000">
+                  <c:v>9.569230769228144E-4</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11DF-4AA4-A665-020D3733F11B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359817279"/>
+        <c:axId val="359815359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359817279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359815359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="359815359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359817279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2879,6 +3993,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3950,6 +5104,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3992,6 +5662,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73DD4C1-7367-3243-E758-9D668D0A51DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4351,16 +6062,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651972A6-FD95-4C23-99A5-ECDEA62D55C5}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F141" sqref="A1:F141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -4374,7 +6085,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4383,7 +6094,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4403,7 +6114,7 @@
         <v>-9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4420,7 +6131,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4432,12 +6143,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +6160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4463,7 +6174,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>180</v>
       </c>
@@ -4480,7 +6191,7 @@
         <v>1.0163</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>181</v>
       </c>
@@ -4497,7 +6208,7 @@
         <v>-1.1099999999999888E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>182</v>
       </c>
@@ -4514,13 +6225,13 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>174</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4528,7 +6239,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +6250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4554,7 +6265,7 @@
         <v>-9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4569,7 +6280,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4584,12 +6295,12 @@
         <v>-8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -4601,7 +6312,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -4613,7 +6324,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -4630,7 +6341,7 @@
         <v>1.0141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -4647,7 +6358,7 @@
         <v>-1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -4664,12 +6375,12 @@
         <v>-2.5899999999999923E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -4677,7 +6388,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4685,7 +6396,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -4700,7 +6411,7 @@
         <v>-5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4715,7 +6426,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4730,12 +6441,12 @@
         <v>-6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4743,7 +6454,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -4751,7 +6462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4759,7 +6470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4774,7 +6485,7 @@
         <v>-8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -4789,7 +6500,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -4804,12 +6515,12 @@
         <v>-1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -4821,7 +6532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -4833,7 +6544,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
@@ -4847,7 +6558,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -4864,7 +6575,7 @@
         <v>1.9000000000000128E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -4881,12 +6592,12 @@
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4894,7 +6605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -4902,7 +6613,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -4917,7 +6628,7 @@
         <v>-6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -4932,7 +6643,7 @@
         <v>-2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -4947,12 +6658,12 @@
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -4964,7 +6675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -4976,7 +6687,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -4993,7 +6704,7 @@
         <v>-2.4000000000000687E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -5007,7 +6718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -5024,12 +6735,12 @@
         <v>-0.17099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -5037,7 +6748,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5045,7 +6756,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +6771,7 @@
         <v>-5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -5075,7 +6786,7 @@
         <v>-2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -5090,12 +6801,12 @@
         <v>-2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>46</v>
       </c>
@@ -5107,7 +6818,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>47</v>
       </c>
@@ -5119,7 +6830,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
@@ -5136,7 +6847,7 @@
         <v>0.51969999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -5153,7 +6864,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -5168,12 +6879,12 @@
         <v>-0.5736</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>51</v>
       </c>
@@ -5185,7 +6896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>52</v>
       </c>
@@ -5197,7 +6908,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>53</v>
       </c>
@@ -5214,7 +6925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -5229,7 +6940,7 @@
         <v>-0.40500000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>55</v>
       </c>
@@ -5246,12 +6957,12 @@
         <v>1.000000000000445E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>56</v>
       </c>
@@ -5263,7 +6974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>57</v>
       </c>
@@ -5275,7 +6986,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -5290,7 +7001,7 @@
         <v>-0.3397</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
@@ -5305,7 +7016,7 @@
         <v>-0.33850000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -5320,12 +7031,12 @@
         <v>-0.38450000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>61</v>
       </c>
@@ -5337,7 +7048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>62</v>
       </c>
@@ -5349,7 +7060,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
@@ -5361,7 +7072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -5376,7 +7087,7 @@
         <v>-0.29380000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>65</v>
       </c>
@@ -5391,7 +7102,7 @@
         <v>-0.29270000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>66</v>
       </c>
@@ -5406,12 +7117,12 @@
         <v>-0.3327</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>67</v>
       </c>
@@ -5424,7 +7135,7 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>68</v>
       </c>
@@ -5437,7 +7148,7 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
@@ -5453,7 +7164,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -5469,7 +7180,7 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>71</v>
       </c>
@@ -5485,12 +7196,12 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -5498,7 +7209,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -5506,7 +7217,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -5521,7 +7232,7 @@
         <v>-1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -5536,7 +7247,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -5551,12 +7262,12 @@
         <v>-1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -5564,7 +7275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -5572,7 +7283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -5587,7 +7298,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -5602,7 +7313,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -5617,12 +7328,12 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -5630,7 +7341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -5638,7 +7349,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -5653,7 +7364,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -5668,7 +7379,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -5683,12 +7394,12 @@
         <v>-5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -5696,7 +7407,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -5704,7 +7415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -5719,7 +7430,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -5734,7 +7445,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -5749,12 +7460,12 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -5762,7 +7473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -5770,7 +7481,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -5785,7 +7496,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -5800,7 +7511,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -5815,12 +7526,12 @@
         <v>-1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -5832,7 +7543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
@@ -5849,7 +7560,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -5864,7 +7575,7 @@
         <v>-3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5877,7 +7588,7 @@
         <v>-3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -5889,7 +7600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -5904,7 +7615,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
@@ -5919,7 +7630,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5932,7 +7643,7 @@
         <v>-4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -5940,7 +7651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -5948,7 +7659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -5963,7 +7674,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -5978,7 +7689,7 @@
         <v>-1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -5993,12 +7704,12 @@
         <v>1.0143</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F136" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -6006,7 +7717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -6014,7 +7725,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -6029,7 +7740,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -6044,7 +7755,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -6069,13 +7780,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F352487-CEFB-4AA4-B87D-4BD4D4EEEB50}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -6089,7 +7800,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6098,7 +7809,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6118,7 +7829,7 @@
         <v>-9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6135,7 +7846,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6147,12 +7858,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -6164,7 +7875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
@@ -6178,7 +7889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>180</v>
       </c>
@@ -6195,7 +7906,7 @@
         <v>1.6299999999999981E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>203</v>
       </c>
@@ -6212,7 +7923,7 @@
         <v>-1.1099999999999888E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>182</v>
       </c>
@@ -6229,12 +7940,12 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -6242,7 +7953,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +7964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +7979,7 @@
         <v>-9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6283,7 +7994,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6298,12 +8009,12 @@
         <v>-8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -6315,7 +8026,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +8038,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -6344,7 +8055,7 @@
         <v>1.4100000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -6361,7 +8072,7 @@
         <v>-1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -6378,12 +8089,12 @@
         <v>-2.5899999999999923E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -6391,7 +8102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -6399,7 +8110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6414,7 +8125,7 @@
         <v>-5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -6429,7 +8140,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -6444,12 +8155,12 @@
         <v>-6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6457,7 +8168,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -6465,7 +8176,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -6473,7 +8184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -6488,7 +8199,7 @@
         <v>-8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +8214,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -6518,12 +8229,12 @@
         <v>-1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
@@ -6535,7 +8246,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -6547,7 +8258,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>28</v>
       </c>
@@ -6564,7 +8275,7 @@
         <v>-8.9999999999990088E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -6581,7 +8292,7 @@
         <v>1.9000000000000128E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6598,12 +8309,12 @@
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -6611,7 +8322,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -6619,7 +8330,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -6634,7 +8345,7 @@
         <v>-6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -6649,7 +8360,7 @@
         <v>-2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -6664,12 +8375,12 @@
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -6681,7 +8392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>37</v>
       </c>
@@ -6693,7 +8404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>38</v>
       </c>
@@ -6710,7 +8421,7 @@
         <v>-2.4000000000000687E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>39</v>
       </c>
@@ -6727,31 +8438,31 @@
         <v>-1.2300000000000089E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6">
-        <v>0.40799999999999997</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E54" s="6">
         <v>0.57899999999999996</v>
       </c>
       <c r="F54" s="13">
         <f t="shared" si="0"/>
-        <v>-0.17099999999999999</v>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -6759,7 +8470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6767,7 +8478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6782,7 +8493,7 @@
         <v>-5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -6797,7 +8508,7 @@
         <v>-2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -6812,12 +8523,12 @@
         <v>-2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>46</v>
       </c>
@@ -6829,7 +8540,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>47</v>
       </c>
@@ -6841,7 +8552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>190</v>
       </c>
@@ -6860,7 +8571,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>49</v>
       </c>
@@ -6877,7 +8588,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
@@ -6894,12 +8605,12 @@
         <v>-8.600000000000052E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>51</v>
       </c>
@@ -6911,7 +8622,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
@@ -6923,7 +8634,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
@@ -6940,7 +8651,7 @@
         <v>-2.4499999999999966E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -6957,7 +8668,7 @@
         <v>2.9999999999999472E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -6974,12 +8685,12 @@
         <v>1.000000000000445E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -6991,7 +8702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -7003,7 +8714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>58</v>
       </c>
@@ -7020,7 +8731,7 @@
         <v>-1.1699999999999988E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
@@ -7037,7 +8748,7 @@
         <v>-1.150000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>60</v>
       </c>
@@ -7054,7 +8765,7 @@
         <v>2.3499999999999965E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -7064,7 +8775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>61</v>
       </c>
@@ -7076,7 +8787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -7088,7 +8799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>63</v>
       </c>
@@ -7100,7 +8811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -7117,7 +8828,7 @@
         <v>2.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>65</v>
       </c>
@@ -7134,7 +8845,7 @@
         <v>-1.6699999999999993E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>66</v>
       </c>
@@ -7151,7 +8862,7 @@
         <v>-5.6999999999999829E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -7161,7 +8872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
@@ -7173,7 +8884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
@@ -7185,7 +8896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>69</v>
       </c>
@@ -7202,7 +8913,7 @@
         <v>1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>70</v>
       </c>
@@ -7219,7 +8930,7 @@
         <v>-2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>71</v>
       </c>
@@ -7236,12 +8947,12 @@
         <v>8.8999999999999635E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -7249,7 +8960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -7257,7 +8968,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -7272,7 +8983,7 @@
         <v>-1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -7287,7 +8998,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -7302,12 +9013,12 @@
         <v>-1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -7315,7 +9026,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -7323,7 +9034,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -7338,7 +9049,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -7353,7 +9064,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -7368,12 +9079,12 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -7381,7 +9092,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -7389,7 +9100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -7404,7 +9115,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -7419,7 +9130,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -7434,12 +9145,12 @@
         <v>-5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -7447,7 +9158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -7455,7 +9166,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7470,7 +9181,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7485,7 +9196,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -7500,12 +9211,12 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -7513,7 +9224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -7521,7 +9232,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -7536,7 +9247,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -7551,7 +9262,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -7566,12 +9277,12 @@
         <v>-1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -7583,7 +9294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
@@ -7600,7 +9311,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -7615,7 +9326,7 @@
         <v>-3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7628,7 +9339,7 @@
         <v>-3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -7640,7 +9351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -7657,7 +9368,7 @@
         <v>4.8799999999999996E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
@@ -7672,7 +9383,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7685,7 +9396,7 @@
         <v>-4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -7693,7 +9404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -7701,7 +9412,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -7716,7 +9427,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -7731,7 +9442,7 @@
         <v>-1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -7746,12 +9457,12 @@
         <v>1.4299999999999979E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F136" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -7759,7 +9470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +9478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -7782,7 +9493,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -7797,7 +9508,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -7812,7 +9523,7 @@
         <v>-1.3300000000000006E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>200</v>
       </c>
@@ -7825,7 +9536,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>201</v>
       </c>
@@ -7836,7 +9547,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <f>SUM(B3:B121,B133:B141)</f>
         <v>0</v>
@@ -7860,15 +9571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B83D896-1E67-4773-BD5F-3835F766E0FA}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q147" sqref="Q147"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>172</v>
@@ -7879,8 +9590,11 @@
       <c r="F1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7889,7 +9603,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7909,7 +9623,7 @@
         <v>9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7926,7 +9640,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7938,13 +9652,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -7955,8 +9669,11 @@
       <c r="F7" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -7970,7 +9687,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
@@ -7987,7 +9704,7 @@
         <v>1.6299999999999981E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>181</v>
       </c>
@@ -8004,7 +9721,7 @@
         <v>1.1099999999999888E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>182</v>
       </c>
@@ -8021,13 +9738,13 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -8035,8 +9752,11 @@
       <c r="F13" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8047,7 +9767,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -8062,7 +9782,7 @@
         <v>9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -8077,7 +9797,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -8092,13 +9812,13 @@
         <v>8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -8110,8 +9830,11 @@
         <v>174</v>
       </c>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -8124,7 +9847,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>183</v>
       </c>
@@ -8142,7 +9865,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -8160,7 +9883,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
@@ -8178,13 +9901,13 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -8193,7 +9916,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -8202,7 +9925,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -8216,8 +9939,11 @@
         <f>E27-D27</f>
         <v>5.2999999999999714E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -8232,7 +9958,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -8247,13 +9973,13 @@
         <v>6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8262,7 +9988,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -8270,8 +9996,11 @@
       <c r="F32" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -8280,7 +10009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -8295,7 +10024,7 @@
         <v>8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -8310,7 +10039,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -8325,13 +10054,13 @@
         <v>1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
@@ -8342,8 +10071,11 @@
       <c r="F38" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -8355,7 +10087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>186</v>
       </c>
@@ -8372,7 +10104,7 @@
         <v>8.9999999999990088E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>187</v>
       </c>
@@ -8389,7 +10121,7 @@
         <v>1.9000000000000128E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>188</v>
       </c>
@@ -8406,13 +10138,13 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -8420,8 +10152,11 @@
       <c r="F44" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -8430,7 +10165,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8445,7 +10180,7 @@
         <v>6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -8460,7 +10195,7 @@
         <v>2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -8475,13 +10210,13 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -8493,7 +10228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>37</v>
       </c>
@@ -8505,7 +10240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>38</v>
       </c>
@@ -8522,7 +10257,7 @@
         <v>2.4000000000000687E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>189</v>
       </c>
@@ -8539,30 +10274,30 @@
         <v>1.2300000000000089E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6">
-        <v>0.40799999999999997</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E54" s="11">
         <v>0.57899999999999996</v>
       </c>
       <c r="F54" s="10">
         <f>E54-D54</f>
-        <v>0.17099999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -8571,7 +10306,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -8580,7 +10315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -8595,7 +10330,7 @@
         <v>5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -8610,7 +10345,7 @@
         <v>2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -8625,13 +10360,13 @@
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>46</v>
       </c>
@@ -8643,7 +10378,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>47</v>
       </c>
@@ -8655,7 +10390,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>190</v>
       </c>
@@ -8672,7 +10407,7 @@
         <v>6.7000000000000393E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>49</v>
       </c>
@@ -8689,7 +10424,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>191</v>
       </c>
@@ -8706,13 +10441,13 @@
         <v>8.600000000000052E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>51</v>
       </c>
@@ -8724,7 +10459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
@@ -8736,7 +10471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
@@ -8753,7 +10488,7 @@
         <v>2.4499999999999966E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>192</v>
       </c>
@@ -8770,7 +10505,7 @@
         <v>2.9999999999999472E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>193</v>
       </c>
@@ -8787,13 +10522,13 @@
         <v>1.000000000000445E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -8805,7 +10540,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -8817,7 +10552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>194</v>
       </c>
@@ -8834,7 +10569,7 @@
         <v>1.1699999999999988E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
@@ -8851,7 +10586,7 @@
         <v>1.150000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>60</v>
       </c>
@@ -8868,13 +10603,13 @@
         <v>2.3499999999999965E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>61</v>
       </c>
@@ -8886,7 +10621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -8898,7 +10633,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>63</v>
       </c>
@@ -8910,7 +10645,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>195</v>
       </c>
@@ -8927,7 +10662,7 @@
         <v>2.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>196</v>
       </c>
@@ -8944,7 +10679,7 @@
         <v>1.7699999999999994E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>66</v>
       </c>
@@ -8961,13 +10696,13 @@
         <v>5.6999999999999829E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
@@ -8979,7 +10714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
@@ -8991,7 +10726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>197</v>
       </c>
@@ -9008,7 +10743,7 @@
         <v>1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>198</v>
       </c>
@@ -9025,7 +10760,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>71</v>
       </c>
@@ -9042,13 +10777,13 @@
         <v>8.8999999999999635E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -9057,7 +10792,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -9066,7 +10801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -9081,7 +10816,7 @@
         <v>1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -9096,7 +10831,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -9111,13 +10846,13 @@
         <v>1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -9126,7 +10861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -9135,7 +10870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -9150,7 +10885,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -9165,7 +10900,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -9180,13 +10915,13 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -9195,7 +10930,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -9204,7 +10939,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -9219,7 +10954,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -9234,7 +10969,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -9249,13 +10984,13 @@
         <v>5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -9264,7 +10999,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -9273,7 +11008,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -9288,7 +11023,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -9303,7 +11038,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -9318,13 +11053,13 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -9333,7 +11068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -9342,7 +11077,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -9357,7 +11092,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -9372,7 +11107,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -9387,13 +11122,13 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -9405,24 +11140,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4">
-        <v>7.9000000000000001E-2</v>
+      <c r="D124" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E124" s="12">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="F124" s="12">
-        <f>D124-E124</f>
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -9434,7 +11168,7 @@
       </c>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9444,7 +11178,7 @@
       </c>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -9456,7 +11190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -9466,27 +11200,27 @@
       <c r="E128" s="12">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="F128" s="12">
-        <f t="shared" si="4"/>
-        <v>-4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="E129" s="12">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="F129" s="12">
-        <f t="shared" si="4"/>
-        <v>-4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F129" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -9494,12 +11228,11 @@
       <c r="E130" s="12">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="F130" s="12">
-        <f t="shared" si="4"/>
-        <v>-4.0599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -9508,7 +11241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -9517,7 +11250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -9532,7 +11265,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -9547,7 +11280,7 @@
         <v>1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -9562,13 +11295,13 @@
         <v>1.4299999999999979E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -9577,7 +11310,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -9586,7 +11319,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -9601,7 +11334,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -9616,7 +11349,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -9631,38 +11364,38 @@
         <v>1.3300000000000006E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>200</v>
       </c>
-      <c r="F143" s="10">
-        <f>AVERAGE(G147)/65</f>
-        <v>3.7876923076920065E-3</v>
+      <c r="F143" s="17">
+        <f>G147/65</f>
+        <v>9.569230769228144E-4</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>201</v>
       </c>
       <c r="F144">
-        <v>0.17100000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D145" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" s="16" t="s">
         <v>172</v>
       </c>
@@ -9673,324 +11406,219 @@
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D147" s="15">
         <f>SUM(D3:D121,D133:D141)</f>
-        <v>32.381000000000007</v>
+        <v>32.565000000000005</v>
       </c>
       <c r="E147" s="15">
         <f>SUM(E3:E121,E133:E141)</f>
         <v>32.627199999999988</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G147" s="18">
         <f>E147-D147</f>
-        <v>0.24619999999998043</v>
+        <v>6.2199999999982936E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07D1D1-28CF-44A6-BB96-0420E1FEC425}">
-  <dimension ref="A1:A65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB13D18A-C680-4038-A95F-32F49C33C1B7}">
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C2">
+        <v>17.02</v>
+      </c>
+      <c r="E2">
+        <v>30.07</v>
+      </c>
+      <c r="G2">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C5">
+        <f>C2/C4*3.6</f>
+        <v>122.544</v>
+      </c>
+      <c r="E5">
+        <f>E2/E4*3.6</f>
+        <v>135.315</v>
+      </c>
+      <c r="G5">
+        <f>G2/G4*3.6</f>
+        <v>130.40307692307692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C7">
+        <f>C4+0.001</f>
+        <v>0.501</v>
+      </c>
+      <c r="E7">
+        <f>E4+0.001</f>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G7">
+        <f>G4+0.001</f>
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C8">
+        <f>C2/C7*3.6</f>
+        <v>122.29940119760478</v>
+      </c>
+      <c r="E8">
+        <f>E2/E7*3.6</f>
+        <v>135.14606741573033</v>
+      </c>
+      <c r="G8">
+        <f>G2/G7*3.6</f>
+        <v>130.30284396617989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="C10">
+        <f>C7-0.002</f>
+        <v>0.499</v>
+      </c>
+      <c r="E10">
+        <f>E7-0.002</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G10">
+        <f>G7-0.002</f>
+        <v>1.2989999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C11">
+        <f>C2/C10*3.6</f>
+        <v>122.78957915831664</v>
+      </c>
+      <c r="E11">
+        <f>E2/E10*3.6</f>
+        <v>135.48435544430538</v>
+      </c>
+      <c r="G11">
+        <f>G2/G10*3.6</f>
+        <v>130.50346420323328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C13">
+        <f>C4+0.026</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E13">
+        <f>E4+0.026</f>
+        <v>0.82600000000000007</v>
+      </c>
+      <c r="G13">
+        <f>G4+0.026</f>
+        <v>1.3260000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C14">
+        <f>C2/C13*3.6</f>
+        <v>116.48669201520912</v>
+      </c>
+      <c r="E14">
+        <f>E2/E13*3.6</f>
+        <v>131.05569007263921</v>
+      </c>
+      <c r="G14">
+        <f>G2/G13*3.6</f>
+        <v>127.84615384615384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C16">
+        <f>C4-0.026</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E16">
+        <f>E4-0.026</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G16">
+        <f>G4-0.026</f>
+        <v>1.274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>170</v>
+        <v>212</v>
+      </c>
+      <c r="C17">
+        <f>C2/C16*3.6</f>
+        <v>129.26582278481013</v>
+      </c>
+      <c r="E17">
+        <f>E2/E16*3.6</f>
+        <v>139.86046511627907</v>
+      </c>
+      <c r="G17">
+        <f>G2/G16*3.6</f>
+        <v>133.06436420722136</v>
       </c>
     </row>
   </sheetData>
@@ -9999,16 +11627,321 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07D1D1-28CF-44A6-BB96-0420E1FEC425}">
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53264914-CD3F-402A-B2D7-1460398019E5}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -10022,7 +11955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10031,7 +11964,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10053,7 +11986,7 @@
         <v>9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -10073,7 +12006,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -10085,7 +12018,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10093,7 +12026,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10104,7 +12037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10122,7 +12055,7 @@
         <v>9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -10140,7 +12073,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -10158,7 +12091,7 @@
         <v>8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -10166,7 +12099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -10174,7 +12107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -10192,7 +12125,7 @@
         <v>5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -10210,7 +12143,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -10228,7 +12161,7 @@
         <v>6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -10236,7 +12169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -10244,7 +12177,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -10252,7 +12185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -10270,7 +12203,7 @@
         <v>8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -10288,7 +12221,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -10306,7 +12239,7 @@
         <v>1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -10317,7 +12250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -10328,7 +12261,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -10346,7 +12279,7 @@
         <v>6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -10364,7 +12297,7 @@
         <v>2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -10382,7 +12315,7 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -10393,7 +12326,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -10404,7 +12337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -10422,7 +12355,7 @@
         <v>5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -10440,7 +12373,7 @@
         <v>2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -10458,7 +12391,7 @@
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -10469,7 +12402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -10480,7 +12413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -10498,7 +12431,7 @@
         <v>1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -10516,7 +12449,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -10534,7 +12467,7 @@
         <v>1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>174</v>
       </c>
@@ -10542,7 +12475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10553,7 +12486,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -10564,7 +12497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -10582,7 +12515,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -10600,7 +12533,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -10618,7 +12551,7 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>174</v>
       </c>
@@ -10626,7 +12559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -10637,7 +12570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -10648,7 +12581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -10666,7 +12599,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -10684,7 +12617,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10702,7 +12635,7 @@
         <v>5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>174</v>
       </c>
@@ -10710,7 +12643,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -10721,7 +12654,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -10732,7 +12665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -10750,7 +12683,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -10768,7 +12701,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -10786,7 +12719,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -10797,7 +12730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -10808,7 +12741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10826,7 +12759,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10844,7 +12777,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10862,7 +12795,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -10873,7 +12806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -10884,7 +12817,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -10902,7 +12835,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -10920,7 +12853,7 @@
         <v>1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -10938,7 +12871,7 @@
         <v>1.4299999999999979E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>174</v>
       </c>
@@ -10946,7 +12879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -10957,7 +12890,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -10968,7 +12901,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -10986,7 +12919,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -11004,7 +12937,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -11022,7 +12955,7 @@
         <v>1.3300000000000006E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
         <v>179</v>
       </c>
@@ -11031,7 +12964,7 @@
         <v>9.1631578947368505E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D74">
         <f>SUM(D3,D3:D70)</f>
         <v>18.213999999999995</v>

--- a/Testen/Testdag/LogiTrack/uitwerking.xlsx
+++ b/Testen/Testdag/LogiTrack/uitwerking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VRI_Datalogger\Testen\Testdag\LogiTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB8C52-0F62-400C-A335-22B60231BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17408EF7-EE6F-44C2-BB18-9341CEE0B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{7B07A111-08B1-454F-86EF-344AB394DB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="LogiTrack_all" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="222">
   <si>
     <t>11:16:47.703</t>
   </si>
@@ -658,18 +658,9 @@
     <t xml:space="preserve">Rit 1, 2025-05-09, 11:16:17 </t>
   </si>
   <si>
-    <t>15 meter</t>
-  </si>
-  <si>
-    <t>10 meter</t>
-  </si>
-  <si>
     <t>11:32:40.393</t>
   </si>
   <si>
-    <t>1ms</t>
-  </si>
-  <si>
     <t>Afstand</t>
   </si>
   <si>
@@ -679,19 +670,40 @@
     <t>Snelheid</t>
   </si>
   <si>
-    <t>Tijd + 1ms</t>
-  </si>
-  <si>
-    <t>Tijd- 1ms</t>
-  </si>
-  <si>
-    <t>Tijd - 41ms</t>
-  </si>
-  <si>
-    <t>25 ms</t>
-  </si>
-  <si>
     <t>Tijd + 26ms</t>
+  </si>
+  <si>
+    <t>Tijd - 26ms</t>
+  </si>
+  <si>
+    <t>Rit 25, 2025-05-09, 11:01:25</t>
+  </si>
+  <si>
+    <t>Rit 26, 2025-05-09, 11:03:09</t>
+  </si>
+  <si>
+    <t>Rit 27, 2025-05-09, 11:05:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Gemiddelde verschil in ms</t>
+  </si>
+  <si>
+    <t>73 Metingen</t>
+  </si>
+  <si>
+    <t>Grootste verschil is 0,026 ms</t>
+  </si>
+  <si>
+    <t>Tijd + 9 ms</t>
+  </si>
+  <si>
+    <t>Tijd- 9 ms</t>
   </si>
 </sst>
 </file>
@@ -703,7 +715,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,8 +850,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1065,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1213,7 +1253,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1241,10 +1281,36 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2381,6 +2447,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Verschil DA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2462,9 +2553,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Herberekening!$A$2:$A$147</c:f>
+              <c:f>Herberekening!$A$2:$A$158</c:f>
               <c:strCache>
-                <c:ptCount val="140"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>11:16:47.703</c:v>
                 </c:pt>
@@ -2815,16 +2906,58 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>12:03:54.587</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Rit 25, 2025-05-09, 11:01:25</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11:01:43.190</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11:01:44.605</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11:01:45.956</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11:01:47.251</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Rit 26, 2025-05-09, 11:03:09</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11:03:22.136</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11:03:24.351</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11:03:25.528</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11:03:26.614</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Rit 27, 2025-05-09, 11:05:23</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11:05:42.553</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11:05:43.635</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11:05:44.653</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Herberekening!$F$2:$F$147</c:f>
+              <c:f>Herberekening!$F$2:$F$158</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="1">
                   <c:v>9.100000000000108E-3</c:v>
                 </c:pt>
@@ -3236,11 +3369,29 @@
                 <c:pt idx="139">
                   <c:v>1.3300000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="141" formatCode="0.0000">
-                  <c:v>9.569230769228144E-4</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="General">
-                  <c:v>2.5000000000000001E-2</c:v>
+                <c:pt idx="143">
+                  <c:v>2.1999999999999797E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.9999999999997797E-4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.2999999999999741E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.3999999999998458E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4299999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.1299999999999875E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.3900000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-7.1999999999998732E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,16 +5816,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>115870</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261656</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6062,16 +6213,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651972A6-FD95-4C23-99A5-ECDEA62D55C5}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -6085,7 +6236,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +6245,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6265,7 @@
         <v>-9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6131,7 +6282,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6143,12 +6294,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -6160,7 +6311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -6174,7 +6325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>180</v>
       </c>
@@ -6191,7 +6342,7 @@
         <v>1.0163</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>181</v>
       </c>
@@ -6208,7 +6359,7 @@
         <v>-1.1099999999999888E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>182</v>
       </c>
@@ -6225,13 +6376,13 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>174</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -6239,7 +6390,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6250,7 +6401,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6265,7 +6416,7 @@
         <v>-9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6280,7 +6431,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6295,12 +6446,12 @@
         <v>-8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -6312,7 +6463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -6324,7 +6475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -6341,7 +6492,7 @@
         <v>1.0141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -6358,7 +6509,7 @@
         <v>-1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -6375,12 +6526,12 @@
         <v>-2.5899999999999923E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -6388,7 +6539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -6396,7 +6547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6411,7 +6562,7 @@
         <v>-5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -6426,7 +6577,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -6441,12 +6592,12 @@
         <v>-6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6454,7 +6605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -6462,7 +6613,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -6470,7 +6621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -6485,7 +6636,7 @@
         <v>-8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -6500,7 +6651,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -6515,12 +6666,12 @@
         <v>-1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -6532,7 +6683,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -6544,7 +6695,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
@@ -6558,7 +6709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -6575,7 +6726,7 @@
         <v>1.9000000000000128E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -6592,12 +6743,12 @@
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -6605,7 +6756,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -6613,7 +6764,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -6628,7 +6779,7 @@
         <v>-6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -6643,7 +6794,7 @@
         <v>-2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -6658,12 +6809,12 @@
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -6675,7 +6826,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -6687,7 +6838,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -6704,7 +6855,7 @@
         <v>-2.4000000000000687E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -6718,7 +6869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -6735,12 +6886,12 @@
         <v>-0.17099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -6748,7 +6899,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6756,7 +6907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6771,7 +6922,7 @@
         <v>-5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -6786,7 +6937,7 @@
         <v>-2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -6801,12 +6952,12 @@
         <v>-2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>46</v>
       </c>
@@ -6818,7 +6969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>47</v>
       </c>
@@ -6830,7 +6981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
@@ -6847,7 +6998,7 @@
         <v>0.51969999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -6864,7 +7015,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -6879,12 +7030,12 @@
         <v>-0.5736</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>51</v>
       </c>
@@ -6896,7 +7047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>52</v>
       </c>
@@ -6908,7 +7059,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>53</v>
       </c>
@@ -6925,7 +7076,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -6940,7 +7091,7 @@
         <v>-0.40500000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>55</v>
       </c>
@@ -6957,12 +7108,12 @@
         <v>1.000000000000445E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>56</v>
       </c>
@@ -6974,7 +7125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>57</v>
       </c>
@@ -6986,7 +7137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -7001,7 +7152,7 @@
         <v>-0.3397</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
@@ -7016,7 +7167,7 @@
         <v>-0.33850000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -7031,12 +7182,12 @@
         <v>-0.38450000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>61</v>
       </c>
@@ -7048,7 +7199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>62</v>
       </c>
@@ -7060,7 +7211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
@@ -7072,7 +7223,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -7087,7 +7238,7 @@
         <v>-0.29380000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>65</v>
       </c>
@@ -7102,7 +7253,7 @@
         <v>-0.29270000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>66</v>
       </c>
@@ -7117,12 +7268,12 @@
         <v>-0.3327</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>67</v>
       </c>
@@ -7135,7 +7286,7 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>68</v>
       </c>
@@ -7148,7 +7299,7 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
@@ -7164,7 +7315,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -7180,7 +7331,7 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>71</v>
       </c>
@@ -7196,12 +7347,12 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -7209,7 +7360,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -7217,7 +7368,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -7232,7 +7383,7 @@
         <v>-1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -7247,7 +7398,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -7262,12 +7413,12 @@
         <v>-1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -7283,7 +7434,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -7298,7 +7449,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -7313,7 +7464,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -7328,12 +7479,12 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -7341,7 +7492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -7349,7 +7500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -7364,7 +7515,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -7379,7 +7530,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -7394,12 +7545,12 @@
         <v>-5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -7407,7 +7558,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -7415,7 +7566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7430,7 +7581,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7445,7 +7596,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -7460,12 +7611,12 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -7473,7 +7624,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -7481,7 +7632,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -7496,7 +7647,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -7511,7 +7662,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -7526,12 +7677,12 @@
         <v>-1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -7543,7 +7694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
@@ -7560,7 +7711,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -7575,7 +7726,7 @@
         <v>-3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7588,7 +7739,7 @@
         <v>-3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -7600,7 +7751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -7615,7 +7766,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
@@ -7630,7 +7781,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7643,7 +7794,7 @@
         <v>-4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -7651,7 +7802,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -7659,7 +7810,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -7674,7 +7825,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -7689,7 +7840,7 @@
         <v>-1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -7704,12 +7855,12 @@
         <v>1.0143</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -7717,7 +7868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -7725,7 +7876,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -7740,7 +7891,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -7755,7 +7906,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -7780,13 +7931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F352487-CEFB-4AA4-B87D-4BD4D4EEEB50}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -7800,7 +7951,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7960,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7829,7 +7980,7 @@
         <v>-9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7846,7 +7997,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7858,12 +8009,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -7875,7 +8026,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
@@ -7889,7 +8040,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>180</v>
       </c>
@@ -7906,7 +8057,7 @@
         <v>1.6299999999999981E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>203</v>
       </c>
@@ -7923,7 +8074,7 @@
         <v>-1.1099999999999888E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>182</v>
       </c>
@@ -7940,12 +8091,12 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7953,7 +8104,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7964,7 +8115,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7979,7 +8130,7 @@
         <v>-9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7994,7 +8145,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -8009,12 +8160,12 @@
         <v>-8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -8026,7 +8177,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -8038,7 +8189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -8055,7 +8206,7 @@
         <v>1.4100000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -8072,7 +8223,7 @@
         <v>-1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -8089,12 +8240,12 @@
         <v>-2.5899999999999923E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -8102,7 +8253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -8110,7 +8261,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -8125,7 +8276,7 @@
         <v>-5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -8140,7 +8291,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -8155,12 +8306,12 @@
         <v>-6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8168,7 +8319,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -8176,7 +8327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +8335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -8199,7 +8350,7 @@
         <v>-8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -8214,7 +8365,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -8229,12 +8380,12 @@
         <v>-1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
@@ -8246,7 +8397,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -8258,7 +8409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>28</v>
       </c>
@@ -8275,7 +8426,7 @@
         <v>-8.9999999999990088E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -8292,7 +8443,7 @@
         <v>1.9000000000000128E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -8309,12 +8460,12 @@
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -8322,7 +8473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -8330,7 +8481,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8345,7 +8496,7 @@
         <v>-6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -8360,7 +8511,7 @@
         <v>-2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -8375,12 +8526,12 @@
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -8392,7 +8543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>37</v>
       </c>
@@ -8404,7 +8555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>38</v>
       </c>
@@ -8421,7 +8572,7 @@
         <v>-2.4000000000000687E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>39</v>
       </c>
@@ -8438,9 +8589,9 @@
         <v>-1.2300000000000089E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -8457,12 +8608,12 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -8470,7 +8621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -8478,7 +8629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -8493,7 +8644,7 @@
         <v>-5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -8508,7 +8659,7 @@
         <v>-2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -8523,12 +8674,12 @@
         <v>-2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>46</v>
       </c>
@@ -8540,7 +8691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>47</v>
       </c>
@@ -8552,7 +8703,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>190</v>
       </c>
@@ -8571,7 +8722,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>49</v>
       </c>
@@ -8588,7 +8739,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
@@ -8605,12 +8756,12 @@
         <v>-8.600000000000052E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>51</v>
       </c>
@@ -8622,7 +8773,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
@@ -8634,7 +8785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
@@ -8651,7 +8802,7 @@
         <v>-2.4499999999999966E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -8668,7 +8819,7 @@
         <v>2.9999999999999472E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -8685,12 +8836,12 @@
         <v>1.000000000000445E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -8702,7 +8853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -8714,7 +8865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>58</v>
       </c>
@@ -8731,7 +8882,7 @@
         <v>-1.1699999999999988E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
@@ -8748,7 +8899,7 @@
         <v>-1.150000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>60</v>
       </c>
@@ -8765,7 +8916,7 @@
         <v>2.3499999999999965E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -8775,7 +8926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>61</v>
       </c>
@@ -8787,7 +8938,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -8799,7 +8950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>63</v>
       </c>
@@ -8811,7 +8962,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -8828,7 +8979,7 @@
         <v>2.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>65</v>
       </c>
@@ -8845,7 +8996,7 @@
         <v>-1.6699999999999993E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>66</v>
       </c>
@@ -8862,7 +9013,7 @@
         <v>-5.6999999999999829E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -8872,7 +9023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
@@ -8884,7 +9035,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
@@ -8896,7 +9047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>69</v>
       </c>
@@ -8913,7 +9064,7 @@
         <v>1.5900000000000025E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>70</v>
       </c>
@@ -8930,7 +9081,7 @@
         <v>-2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>71</v>
       </c>
@@ -8947,12 +9098,12 @@
         <v>8.8999999999999635E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -8960,7 +9111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -8968,7 +9119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -8983,7 +9134,7 @@
         <v>-1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -8998,7 +9149,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -9013,12 +9164,12 @@
         <v>-1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -9026,7 +9177,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -9034,7 +9185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -9049,7 +9200,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -9064,7 +9215,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -9079,12 +9230,12 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -9092,7 +9243,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -9100,7 +9251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -9115,7 +9266,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -9130,7 +9281,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -9145,12 +9296,12 @@
         <v>-5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -9158,7 +9309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -9166,7 +9317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -9181,7 +9332,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -9196,7 +9347,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -9211,12 +9362,12 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -9224,7 +9375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -9232,7 +9383,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -9247,7 +9398,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -9262,7 +9413,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -9277,12 +9428,12 @@
         <v>-1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -9294,7 +9445,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
@@ -9311,7 +9462,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -9326,7 +9477,7 @@
         <v>-3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9339,7 +9490,7 @@
         <v>-3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -9351,7 +9502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -9368,7 +9519,7 @@
         <v>4.8799999999999996E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
@@ -9383,7 +9534,7 @@
         <v>-4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -9396,7 +9547,7 @@
         <v>-4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -9404,7 +9555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -9412,7 +9563,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -9427,7 +9578,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -9442,7 +9593,7 @@
         <v>-1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -9457,12 +9608,12 @@
         <v>1.4299999999999979E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -9470,7 +9621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -9478,7 +9629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -9493,7 +9644,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -9508,7 +9659,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -9523,7 +9674,7 @@
         <v>-1.3300000000000006E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>200</v>
       </c>
@@ -9536,7 +9687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>201</v>
       </c>
@@ -9547,7 +9698,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <f>SUM(B3:B121,B133:B141)</f>
         <v>0</v>
@@ -9569,32 +9720,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B83D896-1E67-4773-BD5F-3835F766E0FA}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9602,8 +9759,11 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9622,8 +9782,17 @@
         <f>E3-D3</f>
         <v>9.100000000000108E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -9639,8 +9808,17 @@
         <f t="shared" ref="F4:F64" si="0">D4-E4</f>
         <v>8.1999999999999851E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9651,14 +9829,20 @@
       <c r="F5" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -9669,11 +9853,11 @@
       <c r="F7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -9686,8 +9870,11 @@
       <c r="F8" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
@@ -9703,8 +9890,17 @@
         <f t="shared" si="0"/>
         <v>1.6299999999999981E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="18">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>181</v>
       </c>
@@ -9720,8 +9916,17 @@
         <f>E10-D10</f>
         <v>1.1099999999999888E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>15</v>
+      </c>
+      <c r="H10" s="18">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>182</v>
       </c>
@@ -9737,14 +9942,26 @@
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <v>15</v>
+      </c>
+      <c r="H11" s="18">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -9753,10 +9970,13 @@
         <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -9766,8 +9986,11 @@
       <c r="F14" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -9781,8 +10004,17 @@
         <f>E15-D15</f>
         <v>9.6000000000000529E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <v>15</v>
+      </c>
+      <c r="H15" s="18">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -9796,8 +10028,17 @@
         <f t="shared" si="0"/>
         <v>9.000000000000119E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -9811,14 +10052,26 @@
         <f>E17-D17</f>
         <v>8.5000000000000631E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="18">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -9830,11 +10083,11 @@
         <v>174</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -9846,8 +10099,11 @@
         <v>174</v>
       </c>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>183</v>
       </c>
@@ -9863,9 +10119,17 @@
         <f t="shared" si="0"/>
         <v>1.4100000000000001E-2</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <v>15</v>
+      </c>
+      <c r="H21" s="18">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -9881,9 +10145,17 @@
         <f>E22-D22</f>
         <v>1.5900000000000025E-2</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="3">
+        <v>15</v>
+      </c>
+      <c r="H22" s="18">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
@@ -9899,15 +10171,26 @@
         <f>E23-D23</f>
         <v>2.5899999999999923E-2</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+      <c r="H23" s="18">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -9915,8 +10198,11 @@
       <c r="F25" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -9924,8 +10210,11 @@
       <c r="F26" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -9939,11 +10228,17 @@
         <f>E27-D27</f>
         <v>5.2999999999999714E-3</v>
       </c>
-      <c r="H27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <v>15</v>
+      </c>
+      <c r="H27" s="18">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -9957,8 +10252,17 @@
         <f t="shared" si="0"/>
         <v>1.0099999999999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="3">
+        <v>15</v>
+      </c>
+      <c r="H28" s="18">
+        <v>80</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -9972,14 +10276,26 @@
         <f>E29-D29</f>
         <v>6.5000000000000613E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29" s="3">
+        <v>15</v>
+      </c>
+      <c r="H29" s="18">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -9987,8 +10303,11 @@
       <c r="F31" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -9997,10 +10316,13 @@
         <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="I32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -10008,8 +10330,11 @@
       <c r="F33" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -10023,8 +10348,17 @@
         <f>E34-D34</f>
         <v>8.0000000000013394E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="18">
+        <v>10</v>
+      </c>
+      <c r="H34" s="18">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -10038,8 +10372,17 @@
         <f t="shared" si="0"/>
         <v>1.7700000000000049E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G35" s="18">
+        <v>10</v>
+      </c>
+      <c r="H35" s="18">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -10053,14 +10396,26 @@
         <f>E36-D36</f>
         <v>1.3299999999999979E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="18">
+        <v>10</v>
+      </c>
+      <c r="H36" s="18">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
@@ -10072,10 +10427,13 @@
         <v>174</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="I38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -10086,8 +10444,11 @@
       <c r="F39" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>186</v>
       </c>
@@ -10103,8 +10464,17 @@
         <f>E40-D40</f>
         <v>8.9999999999990088E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="18">
+        <v>10</v>
+      </c>
+      <c r="H40" s="18">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>187</v>
       </c>
@@ -10120,8 +10490,17 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000128E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G41" s="18">
+        <v>10</v>
+      </c>
+      <c r="H41" s="18">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>188</v>
       </c>
@@ -10137,14 +10516,26 @@
         <f>E42-D42</f>
         <v>3.0000000000000027E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="18">
+        <v>10</v>
+      </c>
+      <c r="H42" s="18">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -10153,10 +10544,13 @@
         <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="I44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -10164,8 +10558,11 @@
       <c r="F45" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -10179,8 +10576,17 @@
         <f>E46-D46</f>
         <v>6.5999999999999392E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="18">
+        <v>10</v>
+      </c>
+      <c r="H46" s="18">
+        <v>60</v>
+      </c>
+      <c r="I46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -10194,8 +10600,17 @@
         <f>E47-D47</f>
         <v>2.3999999999999577E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="18">
+        <v>10</v>
+      </c>
+      <c r="H47" s="18">
+        <v>60</v>
+      </c>
+      <c r="I47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -10209,14 +10624,26 @@
         <f>E48-D48</f>
         <v>9.000000000000008E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="18">
+        <v>10</v>
+      </c>
+      <c r="H48" s="18">
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -10227,8 +10654,11 @@
       <c r="F50" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>37</v>
       </c>
@@ -10239,8 +10669,11 @@
       <c r="F51" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>38</v>
       </c>
@@ -10256,8 +10689,17 @@
         <f>E52-D52</f>
         <v>2.4000000000000687E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="18">
+        <v>10</v>
+      </c>
+      <c r="H52" s="18">
+        <v>70</v>
+      </c>
+      <c r="I52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>189</v>
       </c>
@@ -10273,8 +10715,17 @@
         <f>E53-D53</f>
         <v>1.2300000000000089E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="18">
+        <v>10</v>
+      </c>
+      <c r="H53" s="18">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
@@ -10290,14 +10741,26 @@
         <f>E54-D54</f>
         <v>-1.3000000000000012E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="18">
+        <v>10</v>
+      </c>
+      <c r="H54" s="18">
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -10305,8 +10768,11 @@
       <c r="F56" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -10314,8 +10780,11 @@
       <c r="F57" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -10329,8 +10798,17 @@
         <f>E58-D58</f>
         <v>5.5999999999999384E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="18">
+        <v>10</v>
+      </c>
+      <c r="H58" s="18">
+        <v>80</v>
+      </c>
+      <c r="I58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -10344,8 +10822,17 @@
         <f t="shared" ref="F59:F60" si="1">E59-D59</f>
         <v>2.5999999999999357E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="18">
+        <v>10</v>
+      </c>
+      <c r="H59" s="18">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -10359,14 +10846,26 @@
         <f t="shared" si="1"/>
         <v>2.1999999999999797E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="18">
+        <v>10</v>
+      </c>
+      <c r="H60" s="18">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>46</v>
       </c>
@@ -10377,8 +10876,11 @@
       <c r="F62" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>47</v>
       </c>
@@ -10389,8 +10891,11 @@
       <c r="F63" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>190</v>
       </c>
@@ -10406,8 +10911,17 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000393E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="18">
+        <v>5</v>
+      </c>
+      <c r="H64" s="18">
+        <v>40</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>49</v>
       </c>
@@ -10423,8 +10937,17 @@
         <f t="shared" ref="F65:F66" si="2">E65-D65</f>
         <v>1.8000000000000016E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="18">
+        <v>5</v>
+      </c>
+      <c r="H65" s="18">
+        <v>40</v>
+      </c>
+      <c r="I65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>191</v>
       </c>
@@ -10440,14 +10963,26 @@
         <f t="shared" si="2"/>
         <v>8.600000000000052E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="18">
+        <v>5</v>
+      </c>
+      <c r="H66" s="18">
+        <v>40</v>
+      </c>
+      <c r="I66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>51</v>
       </c>
@@ -10458,8 +10993,11 @@
       <c r="F68" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
@@ -10470,8 +11008,11 @@
       <c r="F69" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
@@ -10487,8 +11028,17 @@
         <f t="shared" ref="F70" si="3">E70-D70</f>
         <v>2.4499999999999966E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="18">
+        <v>5</v>
+      </c>
+      <c r="H70" s="18">
+        <v>50</v>
+      </c>
+      <c r="I70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>192</v>
       </c>
@@ -10501,11 +11051,20 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" ref="F71:F130" si="4">D71-E71</f>
+        <f t="shared" ref="F71:F120" si="4">D71-E71</f>
         <v>2.9999999999999472E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="18">
+        <v>5</v>
+      </c>
+      <c r="H71" s="18">
+        <v>50</v>
+      </c>
+      <c r="I71">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>193</v>
       </c>
@@ -10521,14 +11080,26 @@
         <f t="shared" si="4"/>
         <v>1.000000000000445E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="18">
+        <v>5</v>
+      </c>
+      <c r="H72" s="18">
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -10539,8 +11110,11 @@
       <c r="F74" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -10551,8 +11125,11 @@
       <c r="F75" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>194</v>
       </c>
@@ -10568,8 +11145,17 @@
         <f t="shared" ref="F76:F77" si="5">E76-D76</f>
         <v>1.1699999999999988E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="18">
+        <v>5</v>
+      </c>
+      <c r="H76" s="18">
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
@@ -10585,8 +11171,17 @@
         <f t="shared" si="5"/>
         <v>1.150000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="18">
+        <v>5</v>
+      </c>
+      <c r="H77" s="18">
+        <v>60</v>
+      </c>
+      <c r="I77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>60</v>
       </c>
@@ -10602,14 +11197,26 @@
         <f t="shared" si="4"/>
         <v>2.3499999999999965E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="18">
+        <v>5</v>
+      </c>
+      <c r="H78" s="18">
+        <v>60</v>
+      </c>
+      <c r="I78">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>61</v>
       </c>
@@ -10620,8 +11227,11 @@
       <c r="F80" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -10632,8 +11242,11 @@
       <c r="F81" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>63</v>
       </c>
@@ -10644,8 +11257,11 @@
       <c r="F82" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>195</v>
       </c>
@@ -10661,8 +11277,17 @@
         <f t="shared" si="4"/>
         <v>2.2199999999999998E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="18">
+        <v>5</v>
+      </c>
+      <c r="H83" s="18">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>196</v>
       </c>
@@ -10678,8 +11303,17 @@
         <f t="shared" ref="F84:F85" si="6">E84-D84</f>
         <v>1.7699999999999994E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="18">
+        <v>5</v>
+      </c>
+      <c r="H84" s="18">
+        <v>70</v>
+      </c>
+      <c r="I84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>66</v>
       </c>
@@ -10695,14 +11329,26 @@
         <f t="shared" si="6"/>
         <v>5.6999999999999829E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="18">
+        <v>5</v>
+      </c>
+      <c r="H85" s="18">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
@@ -10713,8 +11359,11 @@
       <c r="F87" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
@@ -10725,8 +11374,11 @@
       <c r="F88" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>197</v>
       </c>
@@ -10742,8 +11394,17 @@
         <f t="shared" si="4"/>
         <v>1.5900000000000025E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="18">
+        <v>5</v>
+      </c>
+      <c r="H89" s="18">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>198</v>
       </c>
@@ -10759,8 +11420,17 @@
         <f t="shared" ref="F90" si="7">E90-D90</f>
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="18">
+        <v>5</v>
+      </c>
+      <c r="H90" s="18">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>71</v>
       </c>
@@ -10776,14 +11446,26 @@
         <f t="shared" si="4"/>
         <v>8.8999999999999635E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="18">
+        <v>5</v>
+      </c>
+      <c r="H91" s="18">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -10791,8 +11473,11 @@
       <c r="F93" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -10800,8 +11485,11 @@
       <c r="F94" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -10815,8 +11503,17 @@
         <f t="shared" ref="F95" si="8">E95-D95</f>
         <v>1.2499999999999997E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="18">
+        <v>1</v>
+      </c>
+      <c r="H95" s="18">
+        <v>40</v>
+      </c>
+      <c r="I95">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -10830,8 +11527,17 @@
         <f t="shared" si="4"/>
         <v>1.2200000000000003E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="18">
+        <v>1</v>
+      </c>
+      <c r="H96" s="18">
+        <v>40</v>
+      </c>
+      <c r="I96">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -10845,14 +11551,26 @@
         <f t="shared" ref="F97" si="9">E97-D97</f>
         <v>1.2300000000000005E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="18">
+        <v>1</v>
+      </c>
+      <c r="H97" s="18">
+        <v>40</v>
+      </c>
+      <c r="I97">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -10860,8 +11578,11 @@
       <c r="F99" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -10869,8 +11590,11 @@
       <c r="F100" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -10884,8 +11608,17 @@
         <f t="shared" si="4"/>
         <v>7.1999999999999981E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="18">
+        <v>1</v>
+      </c>
+      <c r="H101" s="18">
+        <v>50</v>
+      </c>
+      <c r="I101">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -10899,8 +11632,17 @@
         <f t="shared" si="4"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="18">
+        <v>1</v>
+      </c>
+      <c r="H102" s="18">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -10914,14 +11656,26 @@
         <f t="shared" si="4"/>
         <v>6.1999999999999972E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="18">
+        <v>1</v>
+      </c>
+      <c r="H103" s="18">
+        <v>50</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -10929,8 +11683,11 @@
       <c r="F105" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -10938,8 +11695,11 @@
       <c r="F106" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -10953,8 +11713,17 @@
         <f t="shared" si="4"/>
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="18">
+        <v>1</v>
+      </c>
+      <c r="H107" s="18">
+        <v>60</v>
+      </c>
+      <c r="I107">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -10968,8 +11737,17 @@
         <f>E108-D108</f>
         <v>6.8000000000000005E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="18">
+        <v>1</v>
+      </c>
+      <c r="H108" s="18">
+        <v>60</v>
+      </c>
+      <c r="I108">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -10983,14 +11761,26 @@
         <f>E109-D109</f>
         <v>5.9000000000000025E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="18">
+        <v>1</v>
+      </c>
+      <c r="H109" s="18">
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -10998,8 +11788,11 @@
       <c r="F111" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -11007,8 +11800,11 @@
       <c r="F112" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -11022,8 +11818,17 @@
         <f t="shared" si="4"/>
         <v>3.0999999999999986E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="18">
+        <v>1</v>
+      </c>
+      <c r="H113" s="18">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -11037,8 +11842,17 @@
         <f t="shared" si="4"/>
         <v>1.8999999999999989E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="18">
+        <v>1</v>
+      </c>
+      <c r="H114" s="18">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -11052,14 +11866,26 @@
         <f t="shared" si="4"/>
         <v>3.0000000000000027E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="18">
+        <v>1</v>
+      </c>
+      <c r="H115" s="18">
+        <v>70</v>
+      </c>
+      <c r="I115">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -11067,8 +11893,11 @@
       <c r="F117" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -11076,8 +11905,11 @@
       <c r="F118" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -11091,8 +11923,17 @@
         <f t="shared" si="4"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="18">
+        <v>1</v>
+      </c>
+      <c r="H119" s="18">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -11106,8 +11947,17 @@
         <f t="shared" si="4"/>
         <v>1.7000000000000008E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="18">
+        <v>1</v>
+      </c>
+      <c r="H120" s="18">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -11121,14 +11971,26 @@
         <f>E121-D121</f>
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="18">
+        <v>1</v>
+      </c>
+      <c r="H121" s="18">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>97</v>
       </c>
@@ -11139,8 +12001,13 @@
       <c r="F123" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>98</v>
       </c>
@@ -11155,8 +12022,17 @@
       <c r="F124" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="23">
+        <v>1</v>
+      </c>
+      <c r="H124" s="23">
+        <v>100</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -11167,8 +12043,17 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="23">
+        <v>1</v>
+      </c>
+      <c r="H125" s="23">
+        <v>100</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -11177,8 +12062,17 @@
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="F126" s="12"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="23">
+        <v>1</v>
+      </c>
+      <c r="H126" s="23">
+        <v>100</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>100</v>
       </c>
@@ -11189,8 +12083,13 @@
       <c r="F127" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -11203,8 +12102,17 @@
       <c r="F128" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G128" s="23">
+        <v>1</v>
+      </c>
+      <c r="H128" s="23">
+        <v>100</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>102</v>
       </c>
@@ -11219,8 +12127,17 @@
       <c r="F129" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G129" s="23">
+        <v>1</v>
+      </c>
+      <c r="H129" s="23">
+        <v>100</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -11231,8 +12148,17 @@
       <c r="F130" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G130" s="23">
+        <v>1</v>
+      </c>
+      <c r="H130" s="23">
+        <v>100</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -11240,8 +12166,11 @@
       <c r="F131" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -11249,8 +12178,11 @@
       <c r="F132" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -11264,8 +12196,17 @@
         <f t="shared" ref="F133:F140" si="10">D133-E133</f>
         <v>1.5699999999999992E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G133" s="18">
+        <v>3</v>
+      </c>
+      <c r="H133" s="18">
+        <v>120</v>
+      </c>
+      <c r="I133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -11279,8 +12220,17 @@
         <f>E134-D134</f>
         <v>1.3599999999999987E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G134" s="18">
+        <v>3</v>
+      </c>
+      <c r="H134" s="18">
+        <v>120</v>
+      </c>
+      <c r="I134">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -11294,14 +12244,26 @@
         <f t="shared" si="10"/>
         <v>1.4299999999999979E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G135" s="18">
+        <v>3</v>
+      </c>
+      <c r="H135" s="18">
+        <v>120</v>
+      </c>
+      <c r="I135">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -11309,8 +12271,11 @@
       <c r="F137" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -11318,8 +12283,11 @@
       <c r="F138" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -11333,8 +12301,17 @@
         <f t="shared" si="10"/>
         <v>9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G139" s="18">
+        <v>3</v>
+      </c>
+      <c r="H139" s="18">
+        <v>120</v>
+      </c>
+      <c r="I139">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -11348,8 +12325,17 @@
         <f t="shared" si="10"/>
         <v>8.3000000000000018E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G140" s="18">
+        <v>3</v>
+      </c>
+      <c r="H140" s="18">
+        <v>120</v>
+      </c>
+      <c r="I140">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -11363,64 +12349,411 @@
         <f>E141-D141</f>
         <v>1.3300000000000006E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D143" t="s">
-        <v>200</v>
-      </c>
-      <c r="F143" s="17">
-        <f>G147/65</f>
-        <v>9.569230769228144E-4</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D144" t="s">
-        <v>201</v>
-      </c>
-      <c r="F144">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D145" s="16" t="s">
+      <c r="G141" s="18">
+        <v>3</v>
+      </c>
+      <c r="H141" s="18">
+        <v>120</v>
+      </c>
+      <c r="I141">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>212</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145">
+        <v>1.415</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1.4128000000000001</v>
+      </c>
+      <c r="F145" s="10">
+        <f>D145-E145</f>
+        <v>2.1999999999999797E-3</v>
+      </c>
+      <c r="G145" s="18">
+        <v>20</v>
+      </c>
+      <c r="H145" s="18">
+        <v>60</v>
+      </c>
+      <c r="I145">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146">
+        <v>1.351</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1.3508</v>
+      </c>
+      <c r="F146" s="10">
+        <f t="shared" ref="F146:F147" si="11">D146-E146</f>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="G146" s="18">
+        <v>20</v>
+      </c>
+      <c r="H146" s="18">
+        <v>60</v>
+      </c>
+      <c r="I146">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1.2867</v>
+      </c>
+      <c r="F147" s="10">
+        <f t="shared" si="11"/>
+        <v>8.2999999999999741E-3</v>
+      </c>
+      <c r="G147" s="18">
+        <v>20</v>
+      </c>
+      <c r="H147" s="18">
+        <v>60</v>
+      </c>
+      <c r="I147">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>213</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E151" s="10">
+        <v>1.2163999999999999</v>
+      </c>
+      <c r="F151" s="10">
+        <f>D151-E151</f>
+        <v>-1.3999999999998458E-3</v>
+      </c>
+      <c r="G151" s="18">
+        <v>20</v>
+      </c>
+      <c r="H151" s="18">
+        <v>70</v>
+      </c>
+      <c r="I151">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152">
+        <v>1.177</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1.1627000000000001</v>
+      </c>
+      <c r="F152" s="10">
+        <f t="shared" ref="F152:F153" si="12">D152-E152</f>
+        <v>1.4299999999999979E-2</v>
+      </c>
+      <c r="G152" s="18">
+        <v>20</v>
+      </c>
+      <c r="H152" s="18">
+        <v>70</v>
+      </c>
+      <c r="I152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D153">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1.1073</v>
+      </c>
+      <c r="F153" s="10">
+        <f t="shared" si="12"/>
+        <v>-2.1299999999999875E-2</v>
+      </c>
+      <c r="G153" s="18">
+        <v>20</v>
+      </c>
+      <c r="H153" s="18">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="18">
+        <v>20</v>
+      </c>
+      <c r="H156" s="18">
+        <v>80</v>
+      </c>
+      <c r="I156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="E157" s="10">
+        <v>1.0681</v>
+      </c>
+      <c r="F157" s="10">
+        <f>D157-E157</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="G157" s="18">
+        <v>20</v>
+      </c>
+      <c r="H157" s="18">
+        <v>80</v>
+      </c>
+      <c r="I157">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158">
+        <v>1.018</v>
+      </c>
+      <c r="E158" s="10">
+        <v>1.0251999999999999</v>
+      </c>
+      <c r="F158" s="10">
+        <f t="shared" ref="F158" si="13">D158-E158</f>
+        <v>-7.1999999999998732E-3</v>
+      </c>
+      <c r="G158" s="18">
+        <v>20</v>
+      </c>
+      <c r="H158" s="18">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D160" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="28"/>
+    </row>
+    <row r="161" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A161" s="22" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D146" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D147" s="15">
-        <f>SUM(D3:D121,D133:D141)</f>
-        <v>32.565000000000005</v>
-      </c>
-      <c r="E147" s="15">
-        <f>SUM(E3:E121,E133:E141)</f>
-        <v>32.627199999999988</v>
-      </c>
-      <c r="G147" s="18">
-        <f>E147-D147</f>
-        <v>6.2199999999982936E-2</v>
-      </c>
+      <c r="D161" s="8">
+        <f>SUM(D3:D4,D9:D11,D15:D17,D21:D23,D27:D29,D34:D36,D40:D42,D46:D48,D52:D54,D58:D60,D64:D66,D70:D72,D76:D78,D83:D85,D89:D91,D95:D97,D101:D103,D107:D109,D113:D115,D119:D121,D133:D135,D139:D141,D145:D147,D151:D153,D157:D158)</f>
+        <v>42.204000000000008</v>
+      </c>
+      <c r="E161" s="21">
+        <f>SUM(E9:E11,E3:E4,E15:E17,E21:E23,E27:E29,E34:E36,E40:E42,E46:E48,E52:E54,E58:E60,E64:E66,E70:E72,E76:E78,E83:E85,E89:E91,E95:E97,E101:E103,E107:E109,E113:E115,E119:E121,E133:E135,E139:E141,E145:E147,E151:E153,E157:E158)</f>
+        <v>42.25719999999999</v>
+      </c>
+      <c r="F161" s="25">
+        <f>AVERAGE(F3:F4,F9:F11,F15:F17,F21:F23,F27:F29,F34:F36,F40:F42,F46:F48,F52:F54,F58:F60,F64:F66,F70:F72,F76:F78,F83:F85,F89:F91,F95:F97,F101:F103,F107:F109,F113:F115,F119:F121,F133:F135,F139:F141,F145:F147,F151:F153,F157:F158)</f>
+        <v>8.6602739726027479E-3</v>
+      </c>
+      <c r="G161" s="25"/>
+      <c r="I161" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A162" s="22"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+    </row>
+    <row r="163" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A163" s="22"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="21"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C164" s="10"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="D167" s="16"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="D168" s="17"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D170" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F162:H162"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F4 F9:F11 F15:F17 F21:F23 F27:F29 F34:F36 F40:F42 F46:F48 F52:F54 F58:F60 F64:F66 F70:F72 F76:F78 F83:F85 F89:F91 F95:F97 F101:F103 F107:F109 F113:F115 F119:F121 F133:F135 F139:F141 F145:F147 F151:F153 F157:F158">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11431,15 +12764,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB13D18A-C680-4038-A95F-32F49C33C1B7}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>17.02</v>
@@ -11451,9 +12784,9 @@
         <v>47.09</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -11468,9 +12801,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <f>C2/C4*3.6</f>
@@ -11485,77 +12818,77 @@
         <v>130.40307692307692</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C7">
-        <f>C4+0.001</f>
-        <v>0.501</v>
+        <f>C4+0.009</f>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E7">
-        <f>E4+0.001</f>
-        <v>0.80100000000000005</v>
+        <f>E4+0.009</f>
+        <v>0.80900000000000005</v>
       </c>
       <c r="G7">
-        <f>G4+0.001</f>
-        <v>1.3009999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <f>G4+0.009</f>
+        <v>1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8">
         <f>C2/C7*3.6</f>
-        <v>122.29940119760478</v>
+        <v>120.37721021611003</v>
       </c>
       <c r="E8">
         <f>E2/E7*3.6</f>
-        <v>135.14606741573033</v>
+        <v>133.80964153275647</v>
       </c>
       <c r="G8">
         <f>G2/G7*3.6</f>
-        <v>130.30284396617989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129.50649350649351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C10">
-        <f>C7-0.002</f>
-        <v>0.499</v>
+        <f>C4-0.009</f>
+        <v>0.49099999999999999</v>
       </c>
       <c r="E10">
-        <f>E7-0.002</f>
-        <v>0.79900000000000004</v>
+        <f>E4-0.009</f>
+        <v>0.79100000000000004</v>
       </c>
       <c r="G10">
-        <f>G7-0.002</f>
-        <v>1.2989999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f>G4-0.009</f>
+        <v>1.2910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <f>C2/C10*3.6</f>
-        <v>122.78957915831664</v>
+        <v>124.79022403258656</v>
       </c>
       <c r="E11">
         <f>E2/E10*3.6</f>
-        <v>135.48435544430538</v>
+        <v>136.85461441213653</v>
       </c>
       <c r="G11">
         <f>G2/G10*3.6</f>
-        <v>130.50346420323328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131.3121611154144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C13">
         <f>C4+0.026</f>
@@ -11570,9 +12903,9 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C14">
         <f>C2/C13*3.6</f>
@@ -11587,9 +12920,9 @@
         <v>127.84615384615384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C16">
         <f>C4-0.026</f>
@@ -11604,9 +12937,9 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17">
         <f>C2/C16*3.6</f>
@@ -11630,298 +12963,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07D1D1-28CF-44A6-BB96-0420E1FEC425}">
   <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -11939,9 +13272,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -11955,7 +13288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -11964,7 +13297,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -11986,7 +13319,7 @@
         <v>9.100000000000108E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -12006,7 +13339,7 @@
         <v>8.1999999999999851E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -12018,7 +13351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12026,7 +13359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12037,7 +13370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12055,7 +13388,7 @@
         <v>9.6000000000000529E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -12073,7 +13406,7 @@
         <v>9.000000000000119E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -12091,7 +13424,7 @@
         <v>8.5000000000000631E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12099,7 +13432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -12107,7 +13440,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -12125,7 +13458,7 @@
         <v>5.2999999999999714E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -12143,7 +13476,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -12161,7 +13494,7 @@
         <v>6.5000000000000613E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -12169,7 +13502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -12177,7 +13510,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -12185,7 +13518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -12203,7 +13536,7 @@
         <v>8.0000000000013394E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -12221,7 +13554,7 @@
         <v>1.7700000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -12239,7 +13572,7 @@
         <v>1.3299999999999979E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -12250,7 +13583,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -12261,7 +13594,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -12279,7 +13612,7 @@
         <v>6.5999999999999392E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -12297,7 +13630,7 @@
         <v>2.3999999999999577E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -12315,7 +13648,7 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -12326,7 +13659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12337,7 +13670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -12355,7 +13688,7 @@
         <v>5.5999999999999384E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12373,7 +13706,7 @@
         <v>2.5999999999999357E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -12391,7 +13724,7 @@
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -12402,7 +13735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -12413,7 +13746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -12431,7 +13764,7 @@
         <v>1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -12449,7 +13782,7 @@
         <v>1.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -12467,7 +13800,7 @@
         <v>1.2300000000000005E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>174</v>
       </c>
@@ -12475,7 +13808,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -12486,7 +13819,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -12497,7 +13830,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -12515,7 +13848,7 @@
         <v>7.1999999999999981E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -12533,7 +13866,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -12551,7 +13884,7 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>174</v>
       </c>
@@ -12559,7 +13892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -12570,7 +13903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -12581,7 +13914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -12599,7 +13932,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -12617,7 +13950,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -12635,7 +13968,7 @@
         <v>5.9000000000000025E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>174</v>
       </c>
@@ -12643,7 +13976,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -12654,7 +13987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -12665,7 +13998,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -12683,7 +14016,7 @@
         <v>3.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -12701,7 +14034,7 @@
         <v>1.8999999999999989E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -12719,7 +14052,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -12730,7 +14063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -12741,7 +14074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -12759,7 +14092,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -12777,7 +14110,7 @@
         <v>1.7000000000000008E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -12795,7 +14128,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -12806,7 +14139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -12817,7 +14150,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -12835,7 +14168,7 @@
         <v>1.5699999999999992E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -12853,7 +14186,7 @@
         <v>1.3599999999999987E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -12871,7 +14204,7 @@
         <v>1.4299999999999979E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>174</v>
       </c>
@@ -12879,7 +14212,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -12890,7 +14223,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -12901,7 +14234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -12919,7 +14252,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -12937,7 +14270,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -12955,7 +14288,7 @@
         <v>1.3300000000000006E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>179</v>
       </c>
@@ -12964,7 +14297,7 @@
         <v>9.1631578947368505E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74">
         <f>SUM(D3,D3:D70)</f>
         <v>18.213999999999995</v>
